--- a/data/hotels_by_city/Dallas/Dallas_shard_241.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_241.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="820">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="934">
   <si>
     <t>STR#</t>
   </si>
@@ -147,6 +147,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>michiganpete7</t>
+  </si>
+  <si>
     <t>05/29/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t>If choosing to stay at a Fairfield Inn &amp; Suites, you are doing so because it's likely the lowest price option within the Marriott family of hotels.  So go into it knowing that.With this said, we found this property a very good value.  The check-in process was seamless, and the front desk person very friendly.  We had a two-double bed room, which was clean and spacious enough.  Beds were typical Marriott comfortable.  Free wi-fi and breakfast only added to the appeal.  The only negative we experienced was our room was located on the main floor, closest to the side entrance.  A very large group/family was using the pool located only a hundred feet or so down the hall, with tons of food traffic and noise for a couple of hours, going from outside (side door) to the pool area.  The pool area is located inside, with a spa and pool of decent size.  No fault of the hotel, but still made it difficult to get rest until late.More</t>
   </si>
   <si>
+    <t>lenynd</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109231-r565050570-Fairfield_Inn_Suites_Dallas_North_by_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -201,6 +207,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>markk62mk</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109231-r561308332-Fairfield_Inn_Suites_Dallas_North_by_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -216,6 +225,9 @@
     <t>We went to the auto show in Dallas on February 17. I made reservation using their app. I requested extra towels and pillows. The pool was nice and the whirlpool was very warm. We enjoyed our stay very much.</t>
   </si>
   <si>
+    <t>a-travelin-foodie</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109231-r538465897-Fairfield_Inn_Suites_Dallas_North_by_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -243,6 +255,9 @@
     <t>Old building, clean room. Main floor smells and is really dated. Standard Fairfield  breakfast, but room is too small for a full hotel. Breakfast staff very friendly and hard working to keep clean and sticked. Coffee and fridge in room. They left the feather pillows in the room even tho we have standing request to remove. Mattress and foam pillows are fine. A.C. is hotel window unit...had to turn really low to get cool. Location is quiet, but driving-close to Addison restaurants. Parking lot full but still a few spaces on a sold out night. More</t>
   </si>
   <si>
+    <t>Kelly G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109231-r535537143-Fairfield_Inn_Suites_Dallas_North_by_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -261,6 +276,9 @@
     <t>October 2017</t>
   </si>
   <si>
+    <t>Robert M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109231-r533135987-Fairfield_Inn_Suites_Dallas_North_by_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -282,6 +300,9 @@
     <t>This was my first time staying at the Fairfield Inn &amp; Suites by the Galleria and it won't be my last. From the moment I walked in til I walked out, the staff was friendly and eager to help. The room was in perfect condition: clean and had plenty of space. I had a lot of work to do, so thankfully the desk chair was very comfortable. Nothing usually beats my bed at home, but this bed came close. It was soft with just enough firmness. The shower had great water pressure and endless hot water. The hotel is close to shopping and places to eat. There is even an In n Out Burger right down the road. Even though it's located north, it was easy to get all around the Dallas area. Overall it was an amazing experience at a great price. It's exactly what I wanted and more. And like I said, it's my new, first choice in Dallas hotels. More</t>
   </si>
   <si>
+    <t>beeswaxLondon</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109231-r532930253-Fairfield_Inn_Suites_Dallas_North_by_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -297,6 +318,9 @@
     <t>We stayed at this hotel twice at the beginning and end of a two-week road-trip. It is comfortable and clean and we enjoyed the pool. Service is friendly. I'd definitely stay there again. It can take awhile to get downtown from here, but this is probably more because Dallas is huge and sprawling and always rammed with traffic, rather than because the hotel is very far away.</t>
   </si>
   <si>
+    <t>trips50rus</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109231-r527124351-Fairfield_Inn_Suites_Dallas_North_by_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -315,6 +339,9 @@
     <t>April 2017</t>
   </si>
   <si>
+    <t>matthewtessnear</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109231-r499792802-Fairfield_Inn_Suites_Dallas_North_by_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -333,6 +360,9 @@
     <t>June 2017</t>
   </si>
   <si>
+    <t>Ecoinus</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109231-r494396468-Fairfield_Inn_Suites_Dallas_North_by_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -354,6 +384,9 @@
     <t>This hotel is an inexpensive Marriott.Location is great and buffet breakfast provided.The window has good view and table is big enough for me to work on my marketing project.The only pity is the bathtub stopper was missing.  I always enjoy a hot bath before getting to sleep.  That's why I always book hotels room with bathtub.  It was late night, I decided not to bother room service for a bath tub stopper.As a result, I did not have a joyful hot bath as usual.The manager need to send someone to fix it, my room number was #315.Overall, it was a good stay.  I will still give this hotel 4 stars.More</t>
   </si>
   <si>
+    <t>Peggy342014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109231-r494365001-Fairfield_Inn_Suites_Dallas_North_by_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -369,6 +402,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>ALEX P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109231-r478859309-Fairfield_Inn_Suites_Dallas_North_by_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -393,6 +429,9 @@
     <t>The people who work here are the highlight of the property. It's older and needs work, but the price I paid was very good and the room sufficed for my short stay. Room has refrigerator and older style coffee maker. The TV is newer and the work space is fine with plenty of outlets. Internet was fine and free. Breakfast was good. Typical Fairfield fare but the room was serviced nicely and again staffed by a friendly person. I will also comment about the bathtub since I see someone else also mentioned that issue. I also slipped, but didn't fall due to the slipperiness of the tub. It looks like there may have been a mat in the tub at one time because you can see the impression. Might be something to look into since the removal of that seems to have caused an issue. All in all, a fine stay at a good price. The computer in the lobby wasn't working the day I was there so I was not able to print my boarding pass myself. Location was good for the business I was in town for as well.More</t>
   </si>
   <si>
+    <t>Yalonda M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109231-r474638430-Fairfield_Inn_Suites_Dallas_North_by_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -408,6 +447,9 @@
     <t>Nice hotel and good location. The staff was very friendly and knowledgeable.  The breakfast was good and the area was kept clean. The hotel was quiet, the rooms are nice and comfortable. I will visit again.</t>
   </si>
   <si>
+    <t>Diane B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109231-r473618956-Fairfield_Inn_Suites_Dallas_North_by_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -435,6 +477,9 @@
     <t>The tub in our room was weirdly concave and extremely slippery. We had to lay a towel down in the tub in order to take a shower. There were just three pieces of tissue in the dispenser. The lighting at the bathroom mirror was too dim for putting on makeup. On the plus side, the room was clean, and this hotel provided the most comfortable pillows I've ever slept on.More</t>
   </si>
   <si>
+    <t>TravelJ47</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109231-r466813783-Fairfield_Inn_Suites_Dallas_North_by_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -456,6 +501,9 @@
     <t>The first thing I noticed about this hotel was the location. Beyond Beautiful the soothing waterfall in the middle of the street that is shared by surrounding facilities was a nice touch. The outside of the hotel was neat clean and not debris scattered. The parking lot was kind of small but was accessible from any area in the hotel. Upon entering this location the floors were so shinny the smell was indulgent. This location spares nothing when it comes to cleanliness. Appropriate wet floor signs places throughout walking areas when needed. The front desk staff was beyond helpful they were welcoming and very knowledgeable of the hotel and the services they offered. Check in was a breeze with Alyssa, Melissa , Mr. Clay and the other young lady who's name I forget but the team as a whole worked very well together. Amazing customer services. As an employee of the Marriott brand myself I know what is expected and this team went above and beyond. Breakfast was nothing to skip the dining area itself was above standards again this renovation has giving this area an at home feeling. I even had to warm up food really late in the night. The microwave is located in an associates only area. I was allowed to use this area and let me just say the cleanliness is not just for show even the back room was spotless nothing on the floor trash...The first thing I noticed about this hotel was the location. Beyond Beautiful the soothing waterfall in the middle of the street that is shared by surrounding facilities was a nice touch. The outside of the hotel was neat clean and not debris scattered. The parking lot was kind of small but was accessible from any area in the hotel. Upon entering this location the floors were so shinny the smell was indulgent. This location spares nothing when it comes to cleanliness. Appropriate wet floor signs places throughout walking areas when needed. The front desk staff was beyond helpful they were welcoming and very knowledgeable of the hotel and the services they offered. Check in was a breeze with Alyssa, Melissa , Mr. Clay and the other young lady who's name I forget but the team as a whole worked very well together. Amazing customer services. As an employee of the Marriott brand myself I know what is expected and this team went above and beyond. Breakfast was nothing to skip the dining area itself was above standards again this renovation has giving this area an at home feeling. I even had to warm up food really late in the night. The microwave is located in an associates only area. I was allowed to use this area and let me just say the cleanliness is not just for show even the back room was spotless nothing on the floor trash emptied and sink cleared. My stay was peaceful and relaxing and I had no problems with my room. The housekeeping staff was very helpful and ready to assist fresh towels were always available even leaving chocolates on my night stand. As some have stated this location is and was going through some renovations at this time. Rest assure this does affect your stay or experience at all. The attention to detail that has been put into this location was well thought out. The color schemes mesh so well together they even had accent pillows. The bed itself made me rethink my bed of choice for home it was like a really big warm hug I never wanted to get out of. I will be returning to this hotel as their First Impression will be the best night’s sleep I have had in a long time. Thanks Fairfield Inn for this lasting First ImpressionMore</t>
   </si>
   <si>
+    <t>TravelinKs</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109231-r463273337-Fairfield_Inn_Suites_Dallas_North_by_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -480,6 +528,9 @@
     <t>The nastiness hotel I have ever stayed in. I would have left this hotel if I could but I was locked into my reservation.   I also asked for my pillow cases to be changed. They changed them, the next set was stained too. The pool is not operational which is disappointing for my 7 year old.  I just returned to my room it's 1:30pm and housekeeping still hasn't cleaned the room yet. More</t>
   </si>
   <si>
+    <t>Chris H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109231-r460698496-Fairfield_Inn_Suites_Dallas_North_by_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -504,6 +555,9 @@
     <t>The Thursday evening front desk staff were very nice and accommodating and the location is okay, but the property is an older one with smaller than normal Fairfield rooms. They have recently tried to update the property, but have not done a great job. Wallpaper is peeling in spots, dried glue on new carpets, there are stains from water leaks on the ceilings &amp; the walls have been patched and painted in a color that does not match. The breakfast area is clean and the food is the standard free breakfast. Overall, a lackluster property that doesn't live up to Marriott standards. I stay in a hotel 65-70 nights a year (mostly at Marriott properties), but would probably not stay here again.More</t>
   </si>
   <si>
+    <t>iPhoneFan</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109231-r459024179-Fairfield_Inn_Suites_Dallas_North_by_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -528,6 +582,9 @@
     <t>We used points, so glad we didn't have to pay. Staff was highlight of hotel. Clay at check-in was wonderful. Breakfast ladies were lovely. Bed super comfortable. Shower floor felt grimy dirty and shower smelled like mold. Very noisy overall, paper-thin walls. Tiny bathroom countertop. Very basic quality. More</t>
   </si>
   <si>
+    <t>BlutoDave</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109231-r449164232-Fairfield_Inn_Suites_Dallas_North_by_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -549,6 +606,9 @@
     <t>Hats off to Clay. Probably one of the nicest hotel employees I have ever met. Very personable and took care of us. He upgraded us, he gave us some great restaurant recommendations and you can tell he really likes his job.Breakfast was pretty typical. They had some gluten free options which is nice for those that need it. This was very clean and kept up well.The exercise room is small but effective. The TV does not work on elliptical but all other ones work so no big deal. They do have weights and a bench but the space is smaller to do some activities. They definitely don't clean this area everyday or check on it much as towels are not restocked. No big deal just had to ask for some.The pool could really benefit from being heated during winter time. The water was freezing. Kids had a hard time staying in for more than a few minutes. Not sure if algae or bacteria growing on base of middle doors from pool going out to patio. Hot tub was warm but no jets working at the time we were there. No big deal really.Rooms were nice. Pretty typical layouts and options. For us the service made the difference. Really great customer service trumps any of these smaller things. Would go back for sure More</t>
   </si>
   <si>
+    <t>Brandy L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109231-r443602975-Fairfield_Inn_Suites_Dallas_North_by_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -570,6 +630,9 @@
     <t>My husband stayed at this hotel for two nights and said that the bed was very comfortable and the room was nice and clean. There was a mini fridge but no microwave (in case you require one). He also said that the bathroom was nicely cleaned.I personally was very impressed with the service we received over the phone. I had to call to notify them that my husband would be a late arrival. The employee was very friendly and even remembered making our original reservation a couple of weeks ago. Possibly due to my husband's unique name but regardless, I appreciate him doing so. He noted that my husband would have a late arrival of 10 pm but I had to call back at 9 because he was stuck in road construction traffic. The female employee told me that the last employee had made her aware of my husband's late arrival and said that she would be sure not to cancel his reservation despite being even later than originally thought. Both employees made us feel like they were very on top of what was happening with their customers which we really appreciate. Especially when you are coming in to an area you are unfamiliar with at a time when you are tired and ready to have everything be easy to deal with. We will certainly remember this hotel for any additional future business we have in this area.More</t>
   </si>
   <si>
+    <t>LuisLQ</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109231-r440736485-Fairfield_Inn_Suites_Dallas_North_by_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -588,6 +651,9 @@
     <t>November 2016</t>
   </si>
   <si>
+    <t>Hank512</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109231-r433784187-Fairfield_Inn_Suites_Dallas_North_by_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -603,6 +669,9 @@
     <t xml:space="preserve">Location, location , location. Only 1 mile away from the world famous "Mother Tucker Oysters" and fabulous Tex Mex or many othet local dining and entertainment venues. Great for the business traveller who needs quality food with a cocktail close to your room. The property meets the expectations of the Marriott chain and is managed well. Did I mention that this property is tucked away and off of the major roads in a very quiet business park. I love the loccation and will return many times. </t>
   </si>
   <si>
+    <t>Marriott_Devotee</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109231-r430468992-Fairfield_Inn_Suites_Dallas_North_by_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -624,6 +693,9 @@
     <t>Stayed here instead of my friends' home, kind of last minute and I was fortunate enough to get a room w/out using too many points (Category 2 = 7,500).Biggest pro's:1) Terrific location inside the SWest corner of Midway and Spring Valley, barely south of the Addison line and an easy drive to most of North Dallas.2) Fairfield Inn, done the way they do it.  Clean, comfortable, generally functional room.3) Bed was perfect.4) Breakfast was nice.  Nothing special, but this isn't a full-serve Marriott.5) Fast internet was good.Modest ehh's:1) Bathroom lighting was a bit sparse2) No Fox Sports 1 -- hence, no Cubs-Dodgers LCS game3) Some minor housekeeping issues (used towel hidden under desk and no plastic laundry bag), but overall a very nice room that justified a gratuity.Certainly not the best lower-end Marriott I've ever stayed at, but YES I would stay here again.More</t>
   </si>
   <si>
+    <t>tripaj</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109231-r427434201-Fairfield_Inn_Suites_Dallas_North_by_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -639,6 +711,9 @@
     <t>Pros: For a quick stay, this place is great. Arguably one of the top hotel beds I've encountered. Excellent hot tub, nice free wifi, and breakfast is just like other Marriott's and that's not a bad thing at all. And from what little interaction I had with the staff, they were very nice. Decent location for finding random things to do.Cons: fancy, romantic, cutting edge? nope. noisy air conditioner? yep. Pretty short list of cons if you ask me.Will I be back? It's likely.</t>
   </si>
   <si>
+    <t>Billy H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109231-r426418169-Fairfield_Inn_Suites_Dallas_North_by_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -654,6 +729,9 @@
     <t xml:space="preserve">Best hotel in Addison, easy to drive into Dallas. Would go back! The staff was spectacular and the room was very clean.  Parking was easy and there were tons of friendly people staying there as well.  Great restaurants all around! </t>
   </si>
   <si>
+    <t>Fernando A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109231-r423745072-Fairfield_Inn_Suites_Dallas_North_by_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -672,6 +750,9 @@
     <t>September 2016</t>
   </si>
   <si>
+    <t>Ryanphllp</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109231-r408898244-Fairfield_Inn_Suites_Dallas_North_by_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -690,6 +771,9 @@
     <t>December 2015</t>
   </si>
   <si>
+    <t>Alexandre B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109231-r387199833-Fairfield_Inn_Suites_Dallas_North_by_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -708,6 +792,9 @@
     <t>May 2016</t>
   </si>
   <si>
+    <t>mamatica007</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109231-r384627145-Fairfield_Inn_Suites_Dallas_North_by_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -735,6 +822,9 @@
     <t>This hotel is located in an amazing area near, bars, restaurants, shopping and everything.  Addison Tx is a poppin place but this property could use some fixin'.  The elevator sounds like its about to quit and its just 3 floors. The lighting in the room is dim and the A/C is still a window unit. All in all this hotel is par with other Fairfield properties,  but it could use some upgrading. More</t>
   </si>
   <si>
+    <t>Steve L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109231-r383815742-Fairfield_Inn_Suites_Dallas_North_by_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -750,6 +840,9 @@
     <t>This hotel turns on their sprinkler system at night.  It sprays all the guests cars.  It uses either recovered water or hard water.  Once the sun comes up, it cooks the minerals into the car finish, permanently water spotting the car finish.  I told the desk clerk about this problem and she did not seem to care.</t>
   </si>
   <si>
+    <t>Beth S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109231-r382026965-Fairfield_Inn_Suites_Dallas_North_by_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -765,6 +858,9 @@
     <t>Two day stay - found room to be clean and comfortable.  Tucked into neighborhood so quiet but bit difficult to find.  Close to many restaurants.  Breakfast provided a variety of hot and cold options.  Nothing gourmet but had solid breakfast both mornings.  Extremely friendly staff during three shifts (we had reason during our stay to have interchanges during all shifts).Free internet was rather slow and required numerous logins.  Pay the extra money if needing to work or access internet efficiently.</t>
   </si>
   <si>
+    <t>janyap</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109231-r380539169-Fairfield_Inn_Suites_Dallas_North_by_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -789,6 +885,9 @@
     <t>I have been staying at this property regularly for a few years. It is definitely going downhill. The check in, when I arrive late at night, has become a distinctly unpleasant experience. On my last few arrivals, the night clerks were clearly upset with me disturbing them from by showing up, and complained. The staff is no longer paying attention to the wishes written down in the reservation. I have gold status, but no one has noticed nor mentioned the extra benefits Marriott provides with that. The rooms have gotten dirtier: uncleaned stains on the night table, missing laundry bag, unreplenished toiletries.   WiFi is slow and drops connection every so often. The breakfast no longer comes with regular or even 2% milk, only skim.More</t>
   </si>
   <si>
+    <t>ntlwhlr</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109231-r377588145-Fairfield_Inn_Suites_Dallas_North_by_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -810,6 +909,9 @@
     <t>I recently stayed at the Fairfield Inn and had a decent stay.  Summary as below:LOCATION:  The location of the hotel was nice.  It was on a quiet street but was right off main roads which could get you anywhere in the area pretty quick.  Some limited food was in close walking distance and hundreds of choices for food and shopping less than a mile away in any direction.STAFF:  Overall, I found the staff to be friendly.  Check in and out was pretty quick and easy.  During the course of the stay, I noticed if you went to the front desk they were very helpful and friendly but if passing by not much of a glance was shot your way.  The breakfast staff was great.ROOM:  Room was good, had a king bed, couch, desk, mini fridge, microwave, etc.  Room was clean.  The free wifi worked well during my stay and TV had plenty of channels to choose from which was nice.I didn't use the pool or fitness center but they did have those as well.Overall, I had a good stay at the hotel and would stay here again.More</t>
   </si>
   <si>
+    <t>Cabinfever5</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109231-r376570155-Fairfield_Inn_Suites_Dallas_North_by_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -828,6 +930,9 @@
     <t>This hotel has a good vibe. The rooms are very clean. However, I wish I could give it 5 stars but the hallways keep me from doing that. Checked in on a Friday and all week-end, the hallways needed vacuumed. If I had a vacuum, I would have done it myself. Other than that, breakfast was good. Texas shaped waffles an added touch. Complimentary ice water with lemon in lobby only present for Mon-Fri. They should expand that offering 24/7. Thought it had an outdoor pool, but didn't. All and all, I'd stay there again. Check the rates here first. Easy access off of Midway Rd. in a safe residential area. Good location to get to the LBJ quickly!More</t>
   </si>
   <si>
+    <t>Lasberr</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109231-r373540163-Fairfield_Inn_Suites_Dallas_North_by_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -850,6 +955,9 @@
   </si>
   <si>
     <t>When I booked my reservation I was told one thing but when I got to the hotel, there was nothing they could do! The breakfast was fair. The beds were full size, not what I expected at all. The staff wasn't friendly. They stayed in the office area and we had to knock on the door for them to check us out. There was only two wash cloths in a room with double beds. This was my first and last time staying at Fairfield Inn.More</t>
+  </si>
+  <si>
+    <t>Alan B</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109231-r366739969-Fairfield_Inn_Suites_Dallas_North_by_the_Galleria-Dallas_Texas.html</t>
@@ -884,6 +992,9 @@
 When I checked out...I chose this property because it was close to where I was having a meeting the following day. I got in around 9pm on a rainy night and there was no one at the front desk for over 5 minutes. That may not sound like much, until you're waiting. Another guest came and left 2 times while I was waiting at the front desk.When the desk clerk finally arrived she said all the right things, but her attitude was aloof. I got my key and went to my room, only to find 2 long hairs on the edge of the tub, and the tub finish was peeling (it looked like it was recoated and that was peeling and rusting by the drain).I went down to change rooms, which she did for me, but again saying the right things, the wrong way. She gave me an upgrade to a suite-like room, which was furnished nicely, but someone had painted and not done a good job of protecting the carpet and furniture. It also appeared that the room had not been cleaned well, as there were crumbs on the desk chair, and the carpet had not been vacuumed well.In the morning when I went to shower I saw the same peeling finish on this tub, and the shower head had pink mildew on it, and there were signs of mold/mildew by the tub and tile.When I checked out I asked to speak to a manager. The front desk agent was nice and went to the back and said he'd be right out. Again I waited over 5 minutes, and then had to leave for my meeting, and the manager never came out.More</t>
   </si>
   <si>
+    <t>kleinber</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109231-r364031524-Fairfield_Inn_Suites_Dallas_North_by_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -908,6 +1019,9 @@
     <t>By Marriott standards, lean and basic but functional rooms.  Noisy air con-heater units in rooms.  Energy-saving lighting leaves rooms a bit dark.Poor Internet service requires multiple slow logins per day – a nuisance.  Wifi after login is slow even with major websites.  Plus one star for very good breakfast including excellent coffee.Low rise hotel has the virtue of being off main streets, and partially lined by trees.Nothing special, but acceptable for a night or two.More</t>
   </si>
   <si>
+    <t>Laura H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109231-r358873418-Fairfield_Inn_Suites_Dallas_North_by_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -926,6 +1040,9 @@
     <t>March 2016</t>
   </si>
   <si>
+    <t>PlatinumAtMultiple</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109231-r341776995-Fairfield_Inn_Suites_Dallas_North_by_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -953,6 +1070,9 @@
     <t>The standard rooms are just ok, but the actual suite rooms feel very home like.  There is some remodeling going on but I haven't noticed any noise.  I stay here often and just wish they would vary their breakfast offerings a bit.More</t>
   </si>
   <si>
+    <t>BethieMay</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109231-r333153219-Fairfield_Inn_Suites_Dallas_North_by_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -968,6 +1088,9 @@
     <t>We arrived after 15 hours on the road. Front desk offered us a first floor room to better accommodate our German Shepherd but also a 3rd floor room by the stairs that was more along the space I wanted.  We were allowed to look at both and went with the 3rd floor. The stairs were great for my dog (she didn't like the elevator anyway) and they took us outside out back to a lovely patch of green which is all any dog owner needs!</t>
   </si>
   <si>
+    <t>Greg G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109231-r328031826-Fairfield_Inn_Suites_Dallas_North_by_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -986,6 +1109,9 @@
     <t>November 2015</t>
   </si>
   <si>
+    <t>Augie101898</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109231-r326548148-Fairfield_Inn_Suites_Dallas_North_by_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1004,6 +1130,9 @@
     <t>October 2015</t>
   </si>
   <si>
+    <t>NancyGWisconsin_USA</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109231-r314807561-Fairfield_Inn_Suites_Dallas_North_by_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1022,6 +1151,9 @@
     <t>September 2015</t>
   </si>
   <si>
+    <t>jomartinez92</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109231-r307824532-Fairfield_Inn_Suites_Dallas_North_by_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1040,6 +1172,9 @@
     <t>Stayed at this hotel this past weekend and it was great. The lobby was small and cozy, which reminded me of the ones in London. The staff were very friendly and welcoming. The hotel seems like it went through a renovation because the room looked nice, modern and smelled like clean. I asked for a rollout bed at night, but they had ran out. They were gracious enough to offer us with more pillows and blankets. The breakfast was good, but I would have liked a bigger selection. It was a bummer that the shuttle was only available during weekdays, since I wanted to go to the Galleria on Saturday. Overall, the hotel is a great choice if you are looking to stay near the area. More</t>
   </si>
   <si>
+    <t>45DawnC2013</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109231-r307347617-Fairfield_Inn_Suites_Dallas_North_by_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1058,6 +1193,9 @@
     <t>August 2015</t>
   </si>
   <si>
+    <t>jacksonpcannon</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109231-r305054529-Fairfield_Inn_Suites_Dallas_North_by_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1082,6 +1220,9 @@
     <t>This was just your run of the mill Fairfield Inn. It was kind of out dated and the lobby and breakfast area were very small. The staff was very nice and welcoming and gave a welcome goodie bag for being a Marriott Rewards member. The rate also came with bonus points for reward members. Bed was average. Bathroom was average.More</t>
   </si>
   <si>
+    <t>Hsphoser36</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109231-r298912101-Fairfield_Inn_Suites_Dallas_North_by_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1106,6 +1247,9 @@
     <t>We stayed here for 2 nights on points. The location is ok, but it is rather far from downtown. When he finishes this hotel is that there are several miles of running trails nearby: there is a two mile rubber running trail near Brookhaven college, which is about it only a mile and a half from the hotel. There are also several other running trails that go north concrete path through the neighborhoods. The biggest downside to our visit, was that our toilet overflowed and there was standing water from the toilet on the already dirty bathroom floor. We had to be moved rooms, and the management otherwise didn't make any other accommodations for Gold Elite members. We will consider that they didn't make any other arrangements for us such as points awarded back or something of that nature when we consider hotels in the future as we will be in Dallas frequently.More</t>
   </si>
   <si>
+    <t>James M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109231-r284531101-Fairfield_Inn_Suites_Dallas_North_by_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1127,6 +1271,9 @@
     <t>This hotel is located in a residential neighborhood just off a main east-west thoroughfare. I concur with many of the other reviews here, very positive. Staff was friendly and pleasant. Looks like they have recently freshened the paint and carpet. I suggest they also invest in new HVAC. The room we were in had what I believe is an older packaged terminal air conditioning unit. You know, the kind with the two  "high fan/low fan heat/cool" dials. Or perhaps we just had bad luck in the room choice, as our air conditioner was so loud we couldn't sleep, and it got too hot if we turned it off. We probably could have been moved to another room, but I didn't want to deal with that in the middle of the night. Honestly an overall; nice place, we just had to deal with the AC issue.More</t>
   </si>
   <si>
+    <t>angeguam</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109231-r280960952-Fairfield_Inn_Suites_Dallas_North_by_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1142,6 +1289,9 @@
     <t xml:space="preserve">Awesome little hotel in a quiet area of town. Great staff! Nice breakfast with several choices.  The staff, especially the Samoan woman who works in the breakfast area are very nice and helpful.  We had good wifi access with our room. Beds were very comfortable.  We enjoyed it and will be back! </t>
   </si>
   <si>
+    <t>Cathy023</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109231-r271421925-Fairfield_Inn_Suites_Dallas_North_by_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1181,6 +1331,9 @@
     <t>February 2015</t>
   </si>
   <si>
+    <t>Kristina C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109231-r268415617-Fairfield_Inn_Suites_Dallas_North_by_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1208,6 +1361,9 @@
     <t>I stayed here for three nights while visiting friends in Dallas. We chose it based on the location to their home, downtown, and the Galleria Mall for cool restaurants and such. My husband is a Marriott Gold member, but the only benefit we saw at this particular property was getting free high speed wifi--no upgrade, free snack/drink, etc.. Turns out the "high speed" option is not that great because it did not operate well while I was working remotely in the hotel room. The fitness center is small and outdated, but there is an area with an small indoor pool and hot tub. Overall, this is not the best Fairfield we have experienced in the past but it met our needs for the brief time being we were there. I recommend going to the Smoothie King that's within walking distance and in the same parking lot for breakfast rather than eat the complimentary breakfast.More</t>
   </si>
   <si>
+    <t>em_g_s_14</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109231-r250041423-Fairfield_Inn_Suites_Dallas_North_by_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1233,6 +1389,9 @@
   </si>
   <si>
     <t>My father and I went down to Dallas for a short vacation, when we arrived we were told that the only elevator was out of service and would be fixed in a few days. The hotel offered to carry our bags up to the 3rd floor but it would be about 15-20 minutes.  After rolling our bacs to the end of the hall and then up all of the stairs, we then got to walk back down to right across from the elevator where our room was located.  The room was decent, but the bathroom was digusting.  The shower curtain looked as if blood was splattered on the back of it, along with the rest of the bathroom.  The water only had 3 levels: extremely hot, temid, and extremely cold.  It was awful and upsetting. The front desk informed my father that they would make it work and give us extra points or a discount on our stay - though never tried to truly apoligize.  The elevator was out for all the days we were their and they never offered to help carry our bags down.More</t>
+  </si>
+  <si>
+    <t>Hank072010</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109231-r246022851-Fairfield_Inn_Suites_Dallas_North_by_the_Galleria-Dallas_Texas.html</t>
@@ -1272,6 +1431,9 @@
 Weekends can get busy as families come to Dallas area for various events or for just a quick break. But, even on completely full days, I did not experience any noise issues or problems.  Breakfast area can be full on weekend mornings at certain time but a friendly and very...I stayed here for over a month this past Sept/Oct.  I highly recommend this place for the following reasons:1. Outstanding Staff: all the staff at the Front Desk, the lady serving breakfast and housekeeping etc. are genuinely friendly and hard working.  Any questions or issues, they will address it immediately.  Lauren at Front Desk was especially kind and helpful.2. Convenient Location: I had a car (and I assume most guests do) and there are many restaurants and stores only 5-10 minutes drive away.  Easy access to Galleria Mall too.3. Clean: Rooms were clean and well maintained. Not fancy but I'm sure new renovations will give it a more updated, clean look.4. Best price/value offer in the area:North Dallas Galleria area has range of hotels from expensive (Westin, if busy season) to many reasonably priced motels.  As you will see from reviews on this site, lower priced places in the neighbourhood look unappealing - not well managed and not very clean.  I did a lot a research online and also visited a few and Fairfield Inn is by far the best kept and managed in their category.Weekends can get busy as families come to Dallas area for various events or for just a quick break. But, even on completely full days, I did not experience any noise issues or problems.  Breakfast area can be full on weekend mornings at certain time but a friendly and very hard working lady oversees the area and keeps it well maintained.I will definitely stay there again and do recommend business travellers as well as families.More</t>
   </si>
   <si>
+    <t>SeriousBiz</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109231-r242160460-Fairfield_Inn_Suites_Dallas_North_by_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1299,6 +1461,9 @@
     <t>I booked this stay for the 2014 Thanksgiving weekend.  When I booked online, there was a statement about the lobby being under renovation.  I was not too worried about the renovations plus I got a great deal.  When I arrived, they informed me that the elevators were out of order and my room was on the third floor.  There was no offer to put me in a room on a lower floor although a high floor is my preference.  The room was clean and feather free (allergies).  On the second night, I had to park in the rear of the hotel and it is creepy dark back there.  The breakfast was typical bulk food.More</t>
   </si>
   <si>
+    <t>wearymom3</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109231-r240130793-Fairfield_Inn_Suites_Dallas_North_by_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1326,6 +1491,9 @@
     <t>When visiting Dallas we decided to stay more "out" than in Dallas proper. Not only was it more affordable but it also was more centrally located. This is a very clean and comfortable establishment - nothing fancy, and it was perfect for us as we knew we would not be in the hotel except to sleep. The free breakfast is very good, not only the obligatory carbs but also included eggs, sausage and/or bacon, and fresh juices. If I had one complaint it was the fact when you walked into the lobby it smelled as though someone had dropped maple syrup - the odor was overpowering. When I asked the front desk staff they said they "piped in" the caramel apple smell throughout the ventilation system. A little much for my tastes but by our 4th day here we were quite used to it.More</t>
   </si>
   <si>
+    <t>dabby52</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109231-r237840360-Fairfield_Inn_Suites_Dallas_North_by_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1350,6 +1518,9 @@
     <t>Stayed here with my sister and four first cousins to go to a scrapbooking event.  The rooms were nice, cool and clean.  No complaints there.  The highlight was the breakfast each morning! Worth it for that!  Hot or cold, there were lots of selections.  The breakfast bar was well maintained by a friendly woman, who had obviously worked hard at getting everything just so.  Plenty of tables, got a little crowded at one time, but that was because a single man was sitting at a table for six!  All in all a good experience.  The have an indoor hot tub and pool as well as an exercise room with equipment.  One of my cousins was the only one that took time for the hot tub, but she really enjoyed it!More</t>
   </si>
   <si>
+    <t>TravelinQueen</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109231-r236183776-Fairfield_Inn_Suites_Dallas_North_by_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1374,6 +1545,9 @@
     <t>We always stay here when we visit Dallas. It is in a quite neighborhood with easy access to the Dallas North Tollway and LBJ Freeway. There are lots of good restaurants near by. The hotel desk employees are friendly and helpful and the pace is clean and comfortable.More</t>
   </si>
   <si>
+    <t>230Ray</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109231-r228912620-Fairfield_Inn_Suites_Dallas_North_by_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1401,6 +1575,9 @@
     <t>Pro:-Clean room and wash room.-Friendly, fast check-in.-Free &amp; fairly fast WiFi.-Free newspaper at lobby.-Air conditioning cooled the room fairly quietly.-Close to Galleria.Con.-the 1 elevator is slow.-Skip the breakfast - limited section, day old bagels.More</t>
   </si>
   <si>
+    <t>Tyne_B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109231-r227384537-Fairfield_Inn_Suites_Dallas_North_by_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1425,6 +1602,9 @@
     <t>We stayed one night on our trip to market.  Good stay for the price!  We found the hotel easy, plenty of parking.  The front desk help was very friendly.  Rooms were clean and quiet.  We both slept like rocks.  Breakfast was good, eggs and sausage was the only option other than waffles and cereal. More</t>
   </si>
   <si>
+    <t>repo_4</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109231-r226309995-Fairfield_Inn_Suites_Dallas_North_by_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1449,6 +1629,9 @@
     <t>Stayed here for business. The hotel is almost hidden in the neighborhood it is in. The rooms were ok and the staff was very nice and helpful. Free breakfast in the mornings which was a bonus. If they are busy, parking in the front is limited and you may need to park in the back. The lighting was insufficient for me and I would not want my wife back there at night getting out of the car and walking around the back of the hotel to get in. I think that should be addressed. I got stuck in the very last room on the hallway which is a hump from the elevator. They did have an indoor pool but I didn't use it.More</t>
   </si>
   <si>
+    <t>Katmandu69</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109231-r218259326-Fairfield_Inn_Suites_Dallas_North_by_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1476,6 +1659,9 @@
     <t>This is the main place I stay when I leave or return to the States. The staff has always treated us like family. The breakfast is good with fresh fruit and yogurt. The pool and hot tub are wonderful. I have recommend and had friends stay here. There is a strip mall near with eating places. It is about a block walk. Well worth the money.More</t>
   </si>
   <si>
+    <t>TravelerfromArizona</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109231-r209259183-Fairfield_Inn_Suites_Dallas_North_by_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1503,6 +1689,9 @@
     <t>I travel a fair amount and have stayed here a few times.  Pretty convenient spot, taco shop across the street, close to a quickie mart, all in all decent spot.  The hotel is a Fairfield so I do not expect it to be on the level of a Courtyard and such in the Marriott line up.  This hotel in the past has been a good competitor to the Springhill and Courtyard down the road closer to Beltline road.  Not this time.  I got in fairly late and when I got to my room I was met with a smell, not really sure what that smell was either!  I was so tired and it was cool enough outside I opened the window.  My point is two fold, I am the highest level on Marriott and there was zero consideration given to my requests (I did not go into that) in my profile along with a funk in the room.  The other part of the point is that I was able to open the window completely from the third floor (about 2 and 1/2 foot opening), watch your kids!  In the past, the attention to detail was pretty good.  Now this time to me it is just another average Fairfield Inn.  I will give them another shot before I take them off of the "good list" in that area.More</t>
   </si>
   <si>
+    <t>lxvantess</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109231-r208318313-Fairfield_Inn_Suites_Dallas_North_by_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1530,6 +1719,9 @@
     <t>Very strange smell of feet in the lobby and ancient computers at the business center. The elevator was old and rickety and super slow. I much rather take the stairs. Front desk staff was wonderful!!! Rooms were very clean. Breakfast staff was prompt about refilling or replacing anything that was low on the continental breakfast. Overall stay was great.More</t>
   </si>
   <si>
+    <t>CyndiAlvarez-Realtor</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109231-r208272702-Fairfield_Inn_Suites_Dallas_North_by_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1569,6 +1761,9 @@
     <t>We have stayed here many times and find that, for the money, it cannot be beat. We love the location, in a quiet area just off busy streets, yet close to good restaurants and the Dallas North Tollway. The hotel is well managed with a friendly staff. The breakfasts are adequate. The rooms are clean and comfortable. I have reservations to stay here for our next trip to Dallas.More</t>
   </si>
   <si>
+    <t>Ishlachi</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109231-r201583617-Fairfield_Inn_Suites_Dallas_North_by_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1596,6 +1791,9 @@
     <t>Stayed here while on a short visit to Dallas.  The staff is very friendly and the hotel is very clean and quiet.  They have a nice pool and fitness center.  The rooms are clean and comfortable.  The breakfast goes beyond the norm for an included hotel breakfast.  It is located slightly off the main road.  This makes it more quiet and it feels safer.  Great location with a short drive to the Galleria.More</t>
   </si>
   <si>
+    <t>Rose A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109231-r198791869-Fairfield_Inn_Suites_Dallas_North_by_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1620,6 +1818,9 @@
     <t>I spent a weekend at this property while visiting Dallas for a conference.  It wasn't a bad hotel at all.  The day staff was a lot friendlier than the night staff.  The rooms were clean... a bit smaller than I expected.  Breakfast was good.  The hotel was conveniently located... close enough to popular areas, but also away from the traffic of the heavily frequented parts of town.  I used the shuttle to go to the conference hotel.  The staff member/driver was extremely nice.  She recommended several restaurants, entertainment spots and routes to avoid traffic jams.  She even gave me her personal cell phone to call for a ride back to the hotel when the conference was over.  No, it's not the "grandest" of them all, but it is a nicely kept, clean, conveniently located hotel for a reasonably priced stay in Dallas.  No photos, but I will try to remember them on the next review.  :-)More</t>
   </si>
   <si>
+    <t>momof2z</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109231-r196349818-Fairfield_Inn_Suites_Dallas_North_by_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1641,6 +1842,9 @@
     <t>I spent last weekend at this property in North Dallas.  We were part of a large group of cheerleaders and parents.  This hotel went above and beyond.  The rooms were great, we stayed in a suite that has a king bed, separate living area with a hide-a-bed (which was horribly uncomfortable-but we did see deliverymen bringing in brand new sofabeds-so maybe it was being replaced)  It had 2 televisions, small vanity area (really too small for the space) and refrigerator, microwave and small coffee maker.  Bed was excellent, room was clean, lobby and common areas seem recently updated, modern and CLEAN.  We had called ahead for an early arrival, and they were able to assist. The breakfast was the usual fare, and the attendant was very friendly and kept everything well stocked-especially with the large crowds.  The location is good, in sort of a warehouse/business district.  There are a couple of fast food locations nearby.  Location seems secure and safe.  During the day, the hotel cleaning staff was very visible, hotel lobby was immaculate.Our kids enjoyed the indoor pool. The staff was very friendly, accommodating and helpful.  I would recommend this hotel.More</t>
   </si>
   <si>
+    <t>dan s</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109231-r181998555-Fairfield_Inn_Suites_Dallas_North_by_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1656,6 +1860,9 @@
     <t>This hotel is in a bad spot very shady people staying here, even the back doors are not secured or locked, Staff ok, rooms not worth the money you pay $109 for a small room, stayed at other marriott properties and they are worth the value of your money but not this one. this is not a place to stay if your on business trip. Seen people there who look like they stay at a hotel for other reasons than family or business if you know what i mean.</t>
   </si>
   <si>
+    <t>Cdav2TX</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109231-r181116509-Fairfield_Inn_Suites_Dallas_North_by_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1669,6 +1876,9 @@
   </si>
   <si>
     <t xml:space="preserve">Yes the property is being remodeled but my stay was comfortable. I found the neighborhood quiet and the location worked well . If you stay there is a lot of dust. I think the rates should be reduced to match the construction in process.  Be interesting to see after remodel. </t>
+  </si>
+  <si>
+    <t>timeflyer</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109231-r180895204-Fairfield_Inn_Suites_Dallas_North_by_the_Galleria-Dallas_Texas.html</t>
@@ -1699,6 +1909,9 @@
 The receptionist called Security again to tame this wild bunch. The security guy had to shout out loud in order to be heard, but at the end was able to bring back calm. At this point emerged from the pool a very big guy that I will call "the fridge" not just for of the size of his body, but because he demonstrated to share with the appliance the same...We stayed at the Dallas Fairfield Inn twice. The first stay was good and flawless, so that we decided to return some ten days later. Big mistake!.The fact that we ended up paying more than the internet rate, and that my Marriott membership was not recorded are not the biggest problem.Episode 1 - One week-end night around 3 a.m. people in the next room had a "party". Music, laughter, loud voices, etc. The fact that the women involved were not speaking english make me believe that they were just "temporarely" associated with the occupants of the room. While some other irate customer knocked at this door uselessly, I called the front desk and hotel security was sent in. It was not before 4 a.m. that calm was restored, and sleep was gone.Episode 2 - The following evening, around 9. p.m., I was attendig some business at the front desk, when a bunch of teenagers started misbehaving and making a big mess in the nearby indoor swimming poolThe receptionist called Security again to tame this wild bunch. The security guy had to shout out loud in order to be heard, but at the end was able to bring back calm. At this point emerged from the pool a very big guy that I will call "the fridge" not just for of the size of his body, but because he demonstrated to share with the appliance the same amount of intelligence. This "fridge" started arguing with the security rep. challenging him repeatedly, and even shoving him. The security guy tried to explain that he was just doing his job, and kept a very professional attitude, but was risking to succumb. I watched the scene from a distance and decided to stay, in case he needed a witness at a later moment. All of a sudden "the fridge" started harassing and treathening me.  At this point I asked the front desk to call the local police. Policemen arrived shortly, "the fridge" left the scene and calm was finally restored.I returned to my room, but I did not feel safe for the rest of the night.Episode 3 - I wrote a letter to the General Manager of this hotel, explaining what I saw and praising the conduct of his emploee, but at the same time pointing out the discomfort I suffered during my unfortunate stay. HeI did not even acknowledged receipt of my message (although the mail server did not report any failed delivery). While the above episodes are the result of chance, respondng to a Customer is a direct responsibility and a sign of attention.Given the consideration I had as a Customer, I am not going...More</t>
   </si>
   <si>
+    <t>BethC716</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109231-r179915583-Fairfield_Inn_Suites_Dallas_North_by_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1720,6 +1933,9 @@
     <t>I live locally but had a very early meeting in North Dallas, so I decided to spare myself the traffic and stay near my corporate office.  I chose this hotel because I am a Marriott Rewards platinum member and prefer their properties so I can get the points.This hotel far exceeded my expectations.  The front desk staff was amazing.  Efficient, helpful and very friendly.  The room was clean with new furniture, terrific tv and free internet.The free morning breakfast was way beyond "continental" that so many hotels in this price range offer.  The staff that was overseeing the breakfast were quick to refill anything that ran low and, like the front desk personnel, they were very friendly.Can't say enough nice things about this property.More</t>
   </si>
   <si>
+    <t>regina h</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109231-r176657558-Fairfield_Inn_Suites_Dallas_North_by_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1735,6 +1951,9 @@
     <t xml:space="preserve">This hotel was under remodeling.  The staff was good. The first room had rust in the tub. The second room was moist with walls wet and bed damp. ..yuck.The 3rd room was ok but by now I just wanted to lay down. Maybe when the remodeling is done it'll get better. </t>
   </si>
   <si>
+    <t>our4dogs4</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109231-r175763739-Fairfield_Inn_Suites_Dallas_North_by_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1753,6 +1972,9 @@
     <t>February 2013</t>
   </si>
   <si>
+    <t>jd4055</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109231-r170230690-Fairfield_Inn_Suites_Dallas_North_by_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1768,6 +1990,9 @@
     <t>Hotel is getting a few wear marks on it and some what out dated. Pictures on Marriott website a lilltle misleading.Frist rooms a/c unit sounded like a prop plane taking off asked for a second room and it wasn't much better. Sleeping with the Bose head phones again tonight.</t>
   </si>
   <si>
+    <t>AMF2224</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109231-r168582345-Fairfield_Inn_Suites_Dallas_North_by_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1786,6 +2011,9 @@
     <t>July 2013</t>
   </si>
   <si>
+    <t>SunkissedAdventures</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109231-r165353657-Fairfield_Inn_Suites_Dallas_North_by_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1807,6 +2035,9 @@
     <t>My husband and infant son recently stayed at this hotel while visiting family.  We stayed for 4 nights in what was considered the "Larger Studio- King w/ SofaBed"  We needed a room with a refrigerator for my son's formula and this worked out great.  There was a living room and a bedroom separated by a wall, but no door.  When we arrived they promptly brought a pack &amp; play style crib up to the room with clean sheets and all.  We brought our own sheet for him to use but it was good to see that they had clean sheets for it.  There was a separate vanity area near the fridge and the bathroom was spacious enough for me to store my son's bath-time things when not being used.We had breakfast at the hotel twice.  Lots of good selections: fruit, Texas shaped waffles, oatmeal, cereal, sausage, bacon, eggs, muffins, etc  Lots of families in the dining room for breakfast as well as business travelers.  There was also complimentary popcorn on a few days.There was an indoor pool, fitness center, computer, lounge with TV, and patio with a bbq grill.More</t>
   </si>
   <si>
+    <t>Caite29</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109231-r161664054-Fairfield_Inn_Suites_Dallas_North_by_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1822,6 +2053,9 @@
     <t xml:space="preserve">This is a very good hotel which is very clean with good sized, modern rooms. Whilst this part of town felt quite safe, you need a car to get around. The location is the only reason why I slightly marked this place down. </t>
   </si>
   <si>
+    <t>cran</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109231-r158974693-Fairfield_Inn_Suites_Dallas_North_by_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1840,6 +2074,9 @@
     <t>This is near the Dallas Galleria mall.  We were in a 2 full bed room, and wished it were a 2 queen room which they do not have.  The rooms are nicely furnished.  Clean and quiet.Be careful when exiting the hotel.  Depending on whether you turn left or right out of the parking lot you may be headed to Midway Road or Spring Valley Road both major streets.  Getting to the Galleria which is close can also be difficult with major roads and construction on the I-635 to negotiate.  Also, unless you live in Dallas, you may without knowing it turn on to the Dallas North Tollway which has a toll with no way to pay by cash.Only problem we had with the hotel was slow wi-fi and slow business center computer.  It took 15 minutes to print 3 boarding passes.More</t>
   </si>
   <si>
+    <t>ahhbeachdreams</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109231-r157033827-Fairfield_Inn_Suites_Dallas_North_by_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1855,6 +2092,9 @@
     <t>This was a nice Fairfield. The location was great, near all kinds of shopping and restaurants. It wasn't anything fancy, but the kids loved the pool, which was indoor. That is hard to find at a reasonable price in Dallas, but great when traveling with kids in the Winter! Breakfast was great--they have added hot items like eggs and sausage. I think this may have been the friendliest staff we have ever encountered at a hotel! One thing to note is that these are doubles, not Queen beds.</t>
   </si>
   <si>
+    <t>Maggie O</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109231-r155914824-Fairfield_Inn_Suites_Dallas_North_by_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1882,6 +2122,9 @@
     <t>This hotel isn't super new, or shiny, or frilly, but you know what? I will pick it EVERY time. (Ok, well, almost every time...)For reference, I always pick the 2 room suite (no one likes eating in their bed, that's weird) and it comes standard with a microwave and fridge, so, no need fret!There is a great indoor pool, hot tub, workout room, and little outdoor sitting area (with a grill!). It's SUPER easy to navigate anywhere from this place, but if you need help, you can go to the reason I keep coming back again and again and again and again;THE STAFF.Oh. My. Gosh.They have the friendliest people there on EARTH. Always happy and cheerful, and helpful to NO end. I've never had a problem with them not being able to accomodate any reasonable request I have, and I have never EVER encountered a billing error or problem there (if you travel as much as I do, you know that I mean, calling and chasing down someone to fix a bill is awful.)But I love this hotel. I truly do!More</t>
   </si>
   <si>
+    <t>Tootsie1969</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109231-r154519122-Fairfield_Inn_Suites_Dallas_North_by_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1900,6 +2143,9 @@
     <t>We enjoyed our stay here seemed to be a newer hotel off the main road very quiet. Easy to get to our destination and plenty places to eat near the hotel. The room was clean yet small and there was no fridge or microwave. Not even a microwave in the lobby  area you could use. Being a newer hotel in a big area you'd think that would be a priority but I guess they didn't see the need. Breakfast was good waffles, fruit, meat juice. The hotel was completely booked with softball girls and they kept up well. Bed okay comfy not great. Dust ruffle had some yucky stains I thought could use a wash but I guess the maids don't think customers notice but we do. Good for the price though possibly would stay again. More</t>
   </si>
   <si>
+    <t>texaskdog</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109231-r152606441-Fairfield_Inn_Suites_Dallas_North_by_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1918,6 +2164,9 @@
     <t>Was a good price, staff was friendly and helpful, they had a hot tub, pool, and fitness center, good parking, etc. Was very impressed. No fridge but everything else you could want. Had a great night sleep on the comfy bed too.  I'm not a breakfast guy but unlike most intercontinental breakfasts they had enough room for everyone to sit, and a wide selection of items.  Appears they are trying to be the generic business traveler motel but they offer a lot for the price.  They have a full selection of candy &amp; drinks by the desk and while they are a bit spendy, the Chevron is right behind the motel and McDonald is a block away.More</t>
   </si>
   <si>
+    <t>sfromd</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109231-r151880577-Fairfield_Inn_Suites_Dallas_North_by_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1933,6 +2182,9 @@
     <t>Fast and friendly service upon checkin. The staff ensure i knew all of the amenities, wifi code, breakfast times etc. there was a great INDOOR pool and jacuzzi, a workout room where the equipment actually worked unlike some hotels. The breakfast the next morning was great. It had a huge selection better than some of the really expensive hotels I've stayed at. The breakfast staff were extremely friendly ensuring customers had everything they needed. The stay overall was wonderful. Would highly recommend this hotel when traveling with family or on business for the sole business traveler. Ill be back next time im in the area.</t>
   </si>
   <si>
+    <t>SvetaS22</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109231-r150775811-Fairfield_Inn_Suites_Dallas_North_by_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1948,6 +2200,9 @@
     <t>We arrived quite late at night (1:30 am - or very early in the am) and called ahead to let them know our approximate timing. Very nice over the phone and when we arrived we spent all of 3 minutes checking in and off to the room. Quit comfortabls and complimentary breakfast, which is a added value these days. The only thing is that without a GPS it's a bit hard to find. Otherwise, recommend as a nice stay.</t>
   </si>
   <si>
+    <t>Alex V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109231-r146954147-Fairfield_Inn_Suites_Dallas_North_by_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1966,6 +2221,9 @@
     <t>July 2012</t>
   </si>
   <si>
+    <t>Jan185</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109231-r146839698-Fairfield_Inn_Suites_Dallas_North_by_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1987,6 +2245,9 @@
     <t>My husband and I stayed at the Fairfield Inn North over Thanksgiving.  Since the inn is located off the main road in a peaceful, residential neighborhood, the hotel lends itself to relaxation. We were greeted by a very friendly front desk staff, who were more than willing to change the location of our room due to the chlorine smell of the pool and my asthma.  The room, a suite, was clean, roomy, and nicely decorated in the typical style of a Fairfield Inn property.  The breakfast was also typical of a Fairfield property.  I was glad that fresh fruit and yogurt were available as I am not a fan of powdered eggs.  Overall, we will definitely stay at this hotel the next time we are in Dallas as it is a good value for the money.More</t>
   </si>
   <si>
+    <t>ABbcsb</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109231-r146227477-Fairfield_Inn_Suites_Dallas_North_by_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2003,6 +2264,9 @@
   </si>
   <si>
     <t>This Fairfield Inn itself was fine - my reservation was in order; the room was clean albeit a little on the worn down side; the staff was friendly and helpful. I think I got the last parking space when I arrived at 9:30pm, the place was fully booked. My room was surprisingly quiet, given the fact that I was possibly the only lodger that night who was *not* a middle-school girl on a soccer team. (-: Apparently there was a big tournament in town that weekend. The teams did make use of the breakfast room virtually impossible, I can't comment on what was available. The one public computer didn't work, but the desk clerk let me use her computer at the front desk to print my boarding pass. This would surely be a convenient and relatively inexpensive place to stay if one is going to be based in North Dallas. CAUTION: A nearby major highway, 635/LBJ, is under construction and a total nightmare. I advise using another route, if possible. Sorry to say, ALL of metro-Dallas has traffic that's horrendous, so possibly check in to using a private helicopter! (-:More</t>
+  </si>
+  <si>
+    <t>aggator</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109231-r145252584-Fairfield_Inn_Suites_Dallas_North_by_the_Galleria-Dallas_Texas.html</t>
@@ -2029,6 +2293,9 @@
 The location was good as well....The manager, Dwayne Palmer, at this hotel knows customer service and went above and beyond. I am a huge believer in customer service.  If I am treated well, I will return.  I stay at hotels about 245 days out of the year.  Platinum with many chains, I experience hotels on many different levels. This was your typical Fairfield, but definitely better than several that I have stayed in.   Being a Marriott property you can always expect a clean room with a comfy bed and pillows.  Our room had a refrigerator and microwave(they all might actually).  Upon check in, the front desk staff was super friendly and helpful. In fact, all staff i dealt with were delightful and helpful(not those, 'i hate my job-i shouldn't be working in the hospitality industry-types). I was upgraded as a platinum member which is always a plus!  Internet and breakfast were included in room price.  I have no complaints in these departments either. They serve a full continental breakfast with hot foods as well(waffles, scrambled eggs, sausage etc).  And, i can't forget the Faurgield staple, Jimmy Dean's breakfast sandwiches!! Yum! They also had hard boiled eggs(my fav!)!!! Coffee &amp; hot tea were available at breakfast as well as the in the lobby in the evenings where they also served free popcorn(which is super yummy)!! I had two little bags one night when we watched a movie! ;) thanks Fairfield.The location was good as well.  I found a nice, safe running trail not far from the hotel by a college.  There was also an amazing little coffee shop in walking distance along with a few fast-casual type restaurants(tacos, smoothies, Chinese etc).  Not to mention, its super close o the highway and to DFW plus the Galleria shopping complex is a very short drive away too.  Anyway...when I made it to my room I had a Dole salad kit including cherry tomatos with me that I threw in the fridge.  I absolutely first checked what the temp gauge was at since in the past I have had hotel refrigerators set to max cold and freeze my salad. No bueno! Only this time there was no gauge.  That led me to believe there is no need to worry about freezing my salad.....but I was wrong.  I woke up to a frozen salad! ;(. I went down to the front desk and showed the manager.  Without hesitation, he immediately suggested running to the store to pick me up a new salad AND tomatoes!! And that's exactly what he did! He drove to the store and purchased a new salad bag and a pint of cherry tomorrow's since the store...More</t>
   </si>
   <si>
+    <t>SuzOfTexas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109231-r144838211-Fairfield_Inn_Suites_Dallas_North_by_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2042,6 +2309,9 @@
   </si>
   <si>
     <t>My daughter and I shared a room for 2 nights while participating in the 2012 Susan G Komen 3-Day/60-Miles Walk for the Cure this past weekend. We were pleasantly surprised with the comfortable beds, very friendly staff (they went out of their way to give us breakfast earlier than the opening hour as we had to be at the 3-Day camp by 6:30 AM). The room was very clean, comfortable and roomy. The noise level from other guests was minimal and the staff was helpful with info we needed. We were very happy with our stay and will definitely recommend this hotel when family or friends come into town.</t>
+  </si>
+  <si>
+    <t>MsFire</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109231-r141197224-Fairfield_Inn_Suites_Dallas_North_by_the_Galleria-Dallas_Texas.html</t>
@@ -2070,6 +2340,9 @@
      In closing, I would like to applaud the architect who impressively used the space available in the most useful, comfortable...We had just come from a week at Marriott Residence Inn, so we weren't expecting much for our one night at the Fairfield Inn. We upgraded for a very reasonable charge to the junior suite because we still had food items from our previous hotel that had to be refrigerated. Now normally I have experienced that Fairfield Inns have fridges in their regular rooms, but staff said that the rooms here were being renovated and only the junior suites had the fridges. They also have a microwave.     Well when we opened the door, we were taken aback by the appealing entrance, The entertainment center was on an angle, displayed a good quality faux flower which was beautifully illuminated from a dimmer switch. The front room had its own flat screen TV and the angle of the room was inviting. There was also a desk in there with free Wi-Fi.     The bedroom was spacious enough with plenty of drawer and closet space.The bed was perfectly comfortable, in fact more so than the one at The Residence Inn. There was a second TV in the bedroom. I do love the colors and fabrics that the Fairfield Inns are using now.      The staff was super friendly and helpful. The grounds were immaculate. The location was conveniently located to the main freeways, and stores.      In closing, I would like to applaud the architect who impressively used the space available in the most useful, comfortable and elegant way imaginable. Even though it was smaller than our Residence Inn room, it was more cozy and inviting.More</t>
   </si>
   <si>
+    <t>Deemark</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109231-r139032249-Fairfield_Inn_Suites_Dallas_North_by_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2085,6 +2358,9 @@
     <t>first of all the staff is by far the best!  we checked in early am with ease. if using a debit card they do hold 30.00 over the room amount for damages, but it id released. everyone spoke and was helpful. the grounds were clean. the beds are sooo comfortable. the shower was relaxing. the location was close to everything. the ac was a bit noisy, but bearable. our weekend getaway was wonderful thanks to the fairfield.</t>
   </si>
   <si>
+    <t>PLXGal</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109231-r132621556-Fairfield_Inn_Suites_Dallas_North_by_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2106,6 +2382,9 @@
     <t>This property does the job, not fancy or high touch, but I felt welcomed and rooms/linens were clean.  I'd rather rate it a 3.5, not a signature property that I'd give a 4 rating but average seems too low for the nice staff and much-appreciated quiet location.  Thank you for free wireless!  AC was noisy at night, i turned it off, wish the AC was quieter on low.  Free breakfast is the basics, but was able to make a healthy meal and avoid the processed sausage sandwiches and glazed donuts.  No signage from the main Midway road at all, but not difficult to turn around if one passes this cul de sac. Quite near a college w a running track.More</t>
   </si>
   <si>
+    <t>Mjw1259</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109231-r131163949-Fairfield_Inn_Suites_Dallas_North_by_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2119,6 +2398,9 @@
   </si>
   <si>
     <t>What a great 3 days. Great location to everything. The staff was wonderful. Clean-clean. Wonderful pool and workout room. Galleria 3 miles away!</t>
+  </si>
+  <si>
+    <t>dogsareforlife</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109231-r126438943-Fairfield_Inn_Suites_Dallas_North_by_the_Galleria-Dallas_Texas.html</t>
@@ -2148,6 +2430,9 @@
 Breakfast and internet access is included in the price of the hotel - I think we paid around $130 per night which is very reasonable. The small...OK, right off I have to say that I have mixed feelings about this hotel.  We stayed in a 'junior suite' for three nights over the last weekend.  The location is OK - very convenient for the roads into Dallas and to DFW plus the Galleria shopping complex is a very short drive away too.  The staff are without exception delightfully helpful and friendly to everyone - couldn't fault them.  They are a credit to the hotel.The room was standard Fairfield Inn but a little but gloomy and dark - ours was on the 3rd floor overlooking the back on the building.  There was a king sized bed, a (presumably) sofa bed and two flat screen TVs.  There was a desk and chair too.  The bathroom contained the bath and WC whilst outside was a sink and vanity area plus a fridge and coffee maker.  Not much space to put your things though.  The room was on top of the pool area which means the aircon sucked in the smell of chlorine - not nice.  You could also hear the kids having a great time in the pool - naturally  peace and quiet in the early evenings was in short supply as they were all very loud (and the window wasn't open)Breakfast and internet access is included in the price of the hotel - I think we paid around $130 per night which is very reasonable. The small breakfasrt area off the reception was well stocked and maintained - there was scrambled egg and a sort of sausage meat patty plus some egg and sausage biscuits that you could microwave and take back to your room.  There was apple and orange juice, coffee and some tea selections.  Fruit came in the shape of bananas and apples and also some fruit segments in juice which were pre-packaged.  I believe there were also about 6-8 different types of cereals (mini boxes) plus a waffle machine which was very popular.  Pastries and toast was also available - overall a very reasonable selection.Coffee was available in the reception area in the evenings as was popcorn on one night - didn't try it so don't know if it was any good (smelled nice though!).  There is a small shop with snacks available and i think a laundry but we didn't try this.There is no restaurant on site for an evening meal but there are places around that deliver a selection of food - a menu card is in the room.  I assume most people either go into town OR drive a couple of blocks north where there is an abundance of family type places to eat.  The only place nearby seemed to be a McDonalds.My main issue was that everything about this hotel...More</t>
   </si>
   <si>
+    <t>Reesincal</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109231-r125758263-Fairfield_Inn_Suites_Dallas_North_by_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2163,6 +2448,9 @@
     <t>Stayed at this Fairfield Inn for three nights using Marriott points.  My wife and I were impressed by the friendly staff.  The hotel is a bottom tier Marriott property but has some nice amenities with an indoor pool, breakfast and complimentary wireless in the room.  The room was clean and comfortable.  It is relatively easy to access from the interstate.  We could hear some traffic noise but it wasn't terribly loud.  I would stay here again next trip to Dallas.</t>
   </si>
   <si>
+    <t>AlanAN70</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109231-r122492239-Fairfield_Inn_Suites_Dallas_North_by_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2184,6 +2472,9 @@
     <t>We travel to Dallas quite a bit and we have stayed at a lot of hotels and I have to say by far this is one has been our favorites. For the location and brand of hotel I was expecting to pay more but I only paid $59.00 for a night. The hotel is close to a lot of malls and shopping centers. Check in went great and I wish I could have gotten the gentleman's name when we checked in. He was very helpful and courteous. A true asset to the Marriott team. Our room had a comfortable king bed, 42" or 46" LCD TV, Free Wifi, coffee maker, iron and ironing board and a nice view. We will definitely stay here again.More</t>
   </si>
   <si>
+    <t>Barkmo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109231-r121827057-Fairfield_Inn_Suites_Dallas_North_by_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2220,6 +2511,9 @@
     <t>October 2011</t>
   </si>
   <si>
+    <t>Susan K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109231-r118830985-Fairfield_Inn_Suites_Dallas_North_by_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2238,6 +2532,9 @@
     <t>September 2011</t>
   </si>
   <si>
+    <t>plumbago81</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109231-r118286379-Fairfield_Inn_Suites_Dallas_North_by_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2253,6 +2550,9 @@
     <t>The modern room I got had a comfortable king bed, large and functional desk, refrigerator, and microwave.  Combined with free internet access, a nice workout room, excellent breakfast (included in the room rate), and super friendly staff, my experience couldn't have been nicer.  This hotel far exceeded my expectations for a room that I booked to take advantage of a low, weekend rate.  The waffles maker even makes waffles in the shape of Texas!  You can pay more, but why???</t>
   </si>
   <si>
+    <t>ymbl</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109231-r115867008-Fairfield_Inn_Suites_Dallas_North_by_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2269,6 +2569,9 @@
   </si>
   <si>
     <t>July 2011</t>
+  </si>
+  <si>
+    <t>sagacioustraveler</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109231-r70543388-Fairfield_Inn_Suites_Dallas_North_by_the_Galleria-Dallas_Texas.html</t>
@@ -2302,6 +2605,9 @@
 Last year we stayed at a Courtyard Inn off Quorum Drive and considered it again this year as it's slightly closer to the restaurant in Addison.  However, the Courtyard does not offer shuttle service and the Fairfield Inn does. I can say with such little...We wanted a reasonably priced hotel within a quick cab from a dinner event we were attending in Addison.  Somewhat off the beaten  Beltline and Galleria path, this Fairfield Inn off Midway made for an extremely QUIET location!   Absolutely no street or traffic noise could be heard.They offer a shuttle service on weekdays between 7:00am-7:00pm  anywhere within a five mile radius so virtually any restaurant in Addison is within this range and, I believe, so is the Galleria.  We used the shuttle to get us to the restaurant.Some other reviewer referred to Fairfield Inns as "Courtyard Lite".  The king size bed and feather pillows were super comfortable.  It had a chair, ottoman, desk, chair, and drawers.  Simple vanity, tub and shower with good water pressure and hot water.  Individual coffee maker and blow dryer.They had a small indoor pool with jacuzzi and a small gym with a few treadmills.  Next to the front desk was a "market" with a great selection of junk - I mean comfort- foods like Haagen Das, chips, etc. Breakfast is also included.  Standard bagels, toast, muffins, cereals, juice, coffee, waffles, microwaveable Jimmy Dean egg/bacon/cheese biscuits, fruit, yogurt.Last year we stayed at a Courtyard Inn off Quorum Drive and considered it again this year as it's slightly closer to the restaurant in Addison.  However, the Courtyard does not offer shuttle service and the Fairfield Inn does. I can say with such little difference in rooms and ammenities, this Fairfield Inn a much better value.More</t>
   </si>
   <si>
+    <t>abbagrace</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109231-r36441946-Fairfield_Inn_Suites_Dallas_North_by_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2320,6 +2626,9 @@
     <t>July 2009</t>
   </si>
   <si>
+    <t>MzPebbles</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109231-r31343104-Fairfield_Inn_Suites_Dallas_North_by_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2338,6 +2647,9 @@
     <t>May 2009</t>
   </si>
   <si>
+    <t>shastasheen</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109231-r17372806-Fairfield_Inn_Suites_Dallas_North_by_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2356,6 +2668,9 @@
     <t>June 2008</t>
   </si>
   <si>
+    <t>cart54</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109231-r12638790-Fairfield_Inn_Suites_Dallas_North_by_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2377,6 +2692,9 @@
     <t>We truly thought this hotel was a find. Thanks to TripAdvisor, we decided to try this hotel for our 5-day January trip.  The staff was very helpful the entire stay, but they went above-and-beyond at check-in. They actually lowered our internet rate by $10; that never happened before!  They also offered to move us to another floor for our last day, when a teen bus group arrived.  We declined their offer, but it seemed they were always looking out for us.  Their breakfast was juice, waffles, bagels, yogurt, cereal, and apples. The breakfast room was kept stocked and clean, and had a large flat-screen TV.  Every morning a free USA Today was placed at our door.  Our room was super clean, as was the exercise room with a big flat screen TV.  Both beds in our room were excellent, and there were big and small pillow choices.  We were few blocks from all the restaurants on Belt Line Road; a big plus.  The area was very safe and quiet, with an upscale condo across the street.   We also liked how easy it was to get around with LBJ freeway, Midway Road, and Spring Valley Road easy connections to any direction.  Our only complaint was the vanity area was very small.More</t>
   </si>
   <si>
+    <t>rbaron721</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109231-r8851323-Fairfield_Inn_Suites_Dallas_North_by_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2398,6 +2716,9 @@
     <t>The hotel is basic and clean.  I would stay here again.  The front desk attendants were helpful and courteous.  The only negatives about the hotel were that there is no wirless internet.  In this day and age, everyone should have free wireless internet.  They do have high speed internet available if you pull the Cat-5 cord out of the closet and plug it in to their portal on the desk in the room.  Don't be fooled if they say they have wireless internet- that is true but it is only available in the lobby which is very pointless.Overall I liked the place.  It's not much for decor, but as I said before, the rooms were clean and comfortable.  The shower was clean and it had good presure and a nice showerhead.  The bed and bedding were comfortable and soft.More</t>
   </si>
   <si>
+    <t>tipTexas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109231-r7683411-Fairfield_Inn_Suites_Dallas_North_by_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2413,6 +2734,9 @@
     <t>My husband and I stayed overnight before my trip out of town.  I was not impressed with the front desk staff, who were less than friendly.  The room was great, and the bed was even better.  I really liked the bedding, which was different from your typical hotel-bio-hazard-bedspread.  It was crisp white and felt very clean.  The hotel provided a great continential breakfast with lots of on-the-go choices and they had great complimentary shuttle service at 4:30am to get me to the airport on time (allowing my husband to sleep in).</t>
   </si>
   <si>
+    <t>cwiley34</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109231-r7657509-Fairfield_Inn_Suites_Dallas_North_by_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2428,6 +2752,9 @@
     <t>The hotel has everything you need... Clean.... Soft/Comfortable bed... decent breakfast options.... great price.  What more could you ask for?  Perfect for business travelers.  You can get a good nights sleep as well as get work done at this hotel. This hotel is gives you the most bang for your buck.</t>
   </si>
   <si>
+    <t>LisaKa</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109231-r6032394-Fairfield_Inn_Suites_Dallas_North_by_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2446,6 +2773,9 @@
     <t>The only reason I didn't rate this hotel as excellent is because of the small room size and lack of bathroom amenities. Our room (2 doubles) was OK for 2 people, but 3 or 4 would have been a crowd. There was no closet, just the tubular metal shelf and hanging rod. Bathroom light was rather dim, but acceptable. The only bathroom amenity provided was a bar of soap and shampoo. Breakfast bar was very good and attendant kept it stocked and clean. In fact, the breakfast bar attendant was the biggest help during my stay. I had a flat tire and she went out of her way to tell me the closest place to get it fixed and she called to see if it was open on Sunday and what time it opened! This location is very convenient to the Galleria, North Park Mall, Valley View Mall, lots of restaurants, &amp; a Firestone Tire Center! A gas station/convenience store is right beside the hotel.More</t>
   </si>
   <si>
+    <t>slsiege</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109231-r5882490-Fairfield_Inn_Suites_Dallas_North_by_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2467,6 +2797,9 @@
     <t>My review may be slightly prejudiced by the fact that I got a room on the first floor, almost across from the little exercise room (with a treadmill and step machine in good working order, and a high-def TV with cable), and a few steps from the pocket-sized indoor swimming pool.  Still, the room was clean and comfortable and of a decent size, and the area, a half-block from two major roads, was safe and quiet, and the staff was eager to please, and the continental breakfast was decent.  No restaurant on-site, but there are more with a mile's drive than you would believe.  The desk help will tell you how to get anywhere you need to.  (If you don't have a computer with you, there's a Kinko's about five minutes away where you can get Internet access and printing cheap.)  My AAA rate from Marriott.com was $76.50 per night.  What more do you want?More</t>
   </si>
   <si>
+    <t>PlayDoh</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109231-r5712335-Fairfield_Inn_Suites_Dallas_North_by_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2485,6 +2818,9 @@
     <t>May 2006</t>
   </si>
   <si>
+    <t>NJTraveler74</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109231-r5620427-Fairfield_Inn_Suites_Dallas_North_by_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2503,6 +2839,9 @@
     <t>August 2006</t>
   </si>
   <si>
+    <t>LynnB_Huntsville_AL</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109231-r3211695-Fairfield_Inn_Suites_Dallas_North_by_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2519,6 +2858,9 @@
   </si>
   <si>
     <t>This Fairfield Inn is unexceptional in that it simply delivers on Marriott's promise: clean, comfortable rooms; friendly service; guest-driven amenities; and a price that won't strain the budget. Both Marriott &amp; this property really know their business: this hotel is designed for busy, working professionals, as well as for anyone else that looks for both value &amp; quality. The free high-speed Internet access is terrific; the complimentary breakfast is well-stocked and satisfying; the fitness room &amp; indoor pool provide ample opportunities to keep fit while "on the road;" and they even set up a complimentary, old-timey popcorn cart every afternoon to provide a snack at check-in. Nothing fancy here....just quality accommodations at a fair price provided by customer-oriented staff.More</t>
+  </si>
+  <si>
+    <t>A TripAdvisor Member</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109231-r1281516-Fairfield_Inn_Suites_Dallas_North_by_the_Galleria-Dallas_Texas.html</t>
@@ -3038,43 +3380,47 @@
       <c r="A2" t="n">
         <v>37816</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>136694</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>4</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -3092,50 +3438,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>37816</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>136695</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>4</v>
       </c>
       <c r="N3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P3" t="n">
         <v>5</v>
@@ -3155,50 +3505,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>37816</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>136696</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
         <v>61</v>
       </c>
-      <c r="G4" t="s">
-        <v>45</v>
-      </c>
-      <c r="H4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I4" t="s">
-        <v>62</v>
-      </c>
-      <c r="J4" t="s">
-        <v>63</v>
-      </c>
-      <c r="K4" t="s">
-        <v>64</v>
-      </c>
-      <c r="L4" t="s">
-        <v>65</v>
-      </c>
-      <c r="M4" t="n">
-        <v>5</v>
-      </c>
-      <c r="N4" t="s">
-        <v>59</v>
-      </c>
       <c r="O4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -3212,50 +3566,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>37816</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>136697</v>
+      </c>
+      <c r="C5" t="s">
+        <v>69</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="J5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="K5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="L5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="M5" t="n">
         <v>3</v>
       </c>
       <c r="N5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="O5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -3267,56 +3625,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="X5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="Y5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>37816</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>2660</v>
+      </c>
+      <c r="C6" t="s">
+        <v>79</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="J6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="K6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="L6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="O6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="n">
@@ -3334,50 +3696,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>37816</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>7035</v>
+      </c>
+      <c r="C7" t="s">
+        <v>86</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="J7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="K7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="L7" t="s">
+        <v>91</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
         <v>85</v>
       </c>
-      <c r="M7" t="n">
-        <v>5</v>
-      </c>
-      <c r="N7" t="s">
-        <v>80</v>
-      </c>
       <c r="O7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -3391,50 +3757,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>37816</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>75372</v>
+      </c>
+      <c r="C8" t="s">
+        <v>94</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="J8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="K8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="L8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="O8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P8" t="n">
         <v>5</v>
@@ -3454,50 +3824,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>37816</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>136698</v>
+      </c>
+      <c r="C9" t="s">
+        <v>100</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="J9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="K9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="L9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="O9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P9" t="n">
         <v>5</v>
@@ -3517,50 +3891,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>37816</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>136699</v>
+      </c>
+      <c r="C10" t="s">
+        <v>107</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="J10" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="K10" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="L10" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="M10" t="n">
         <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="O10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P10" t="n">
         <v>5</v>
@@ -3580,50 +3958,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>37816</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>136700</v>
+      </c>
+      <c r="C11" t="s">
+        <v>114</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="J11" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="K11" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="L11" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="M11" t="n">
         <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="O11" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -3637,50 +4019,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>37816</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>136701</v>
+      </c>
+      <c r="C12" t="s">
+        <v>122</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
+        <v>124</v>
+      </c>
+      <c r="J12" t="s">
+        <v>117</v>
+      </c>
+      <c r="K12" t="s">
+        <v>125</v>
+      </c>
+      <c r="L12" t="s">
+        <v>126</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
         <v>113</v>
       </c>
-      <c r="J12" t="s">
-        <v>107</v>
-      </c>
-      <c r="K12" t="s">
-        <v>114</v>
-      </c>
-      <c r="L12" t="s">
-        <v>115</v>
-      </c>
-      <c r="M12" t="n">
-        <v>5</v>
-      </c>
-      <c r="N12" t="s">
-        <v>104</v>
-      </c>
       <c r="O12" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="n">
@@ -3700,50 +4086,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>37816</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>43472</v>
+      </c>
+      <c r="C13" t="s">
+        <v>128</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="J13" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="K13" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="L13" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="M13" t="n">
         <v>3</v>
       </c>
       <c r="N13" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="O13" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="P13" t="n">
         <v>4</v>
@@ -3761,56 +4151,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="X13" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="Y13" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>37816</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>37804</v>
+      </c>
+      <c r="C14" t="s">
+        <v>137</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="J14" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="K14" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="L14" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="M14" t="n">
         <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="O14" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -3824,50 +4218,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>37816</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>2594</v>
+      </c>
+      <c r="C15" t="s">
+        <v>143</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="J15" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="K15" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="L15" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="M15" t="n">
         <v>3</v>
       </c>
       <c r="N15" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="O15" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -3883,56 +4281,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="X15" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="Y15" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>37816</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>136702</v>
+      </c>
+      <c r="C16" t="s">
+        <v>153</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="J16" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="K16" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="L16" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="O16" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -3950,50 +4352,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>37816</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>136703</v>
+      </c>
+      <c r="C17" t="s">
+        <v>161</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="G17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="J17" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="K17" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="L17" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="O17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -4005,56 +4411,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="X17" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="Y17" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>37816</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>265</v>
+      </c>
+      <c r="C18" t="s">
+        <v>170</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="G18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="J18" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="K18" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="L18" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="M18" t="n">
         <v>2</v>
       </c>
       <c r="N18" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="O18" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -4066,56 +4476,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="X18" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="Y18" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>37816</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>4197</v>
+      </c>
+      <c r="C19" t="s">
+        <v>179</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="J19" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="K19" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="L19" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="M19" t="n">
         <v>2</v>
       </c>
       <c r="N19" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="O19" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -4127,56 +4541,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="X19" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="Y19" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>37816</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>136704</v>
+      </c>
+      <c r="C20" t="s">
+        <v>188</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="G20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="J20" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="K20" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="L20" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="M20" t="n">
         <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="O20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -4190,50 +4608,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>37816</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>13828</v>
+      </c>
+      <c r="C21" t="s">
+        <v>196</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>177</v>
+        <v>197</v>
       </c>
       <c r="G21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
       <c r="J21" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="K21" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="L21" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="O21" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -4247,50 +4669,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>37816</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>136705</v>
+      </c>
+      <c r="C22" t="s">
+        <v>204</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="G22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="J22" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="K22" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="L22" t="s">
-        <v>188</v>
+        <v>209</v>
       </c>
       <c r="M22" t="n">
         <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="O22" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="n">
@@ -4308,50 +4734,54 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>188</v>
+        <v>209</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>37816</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>136706</v>
+      </c>
+      <c r="C23" t="s">
+        <v>211</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="G23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>191</v>
+        <v>213</v>
       </c>
       <c r="J23" t="s">
-        <v>192</v>
+        <v>214</v>
       </c>
       <c r="K23" t="s">
-        <v>193</v>
+        <v>215</v>
       </c>
       <c r="L23" t="s">
-        <v>194</v>
+        <v>216</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="O23" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -4365,50 +4795,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>194</v>
+        <v>216</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>37816</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>136707</v>
+      </c>
+      <c r="C24" t="s">
+        <v>217</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>195</v>
+        <v>218</v>
       </c>
       <c r="G24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>196</v>
+        <v>219</v>
       </c>
       <c r="J24" t="s">
-        <v>197</v>
+        <v>220</v>
       </c>
       <c r="K24" t="s">
-        <v>198</v>
+        <v>221</v>
       </c>
       <c r="L24" t="s">
-        <v>199</v>
+        <v>222</v>
       </c>
       <c r="M24" t="n">
         <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>200</v>
+        <v>223</v>
       </c>
       <c r="O24" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="n">
@@ -4428,50 +4862,54 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>201</v>
+        <v>224</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>37816</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>136708</v>
+      </c>
+      <c r="C25" t="s">
+        <v>225</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>202</v>
+        <v>226</v>
       </c>
       <c r="G25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>203</v>
+        <v>227</v>
       </c>
       <c r="J25" t="s">
-        <v>204</v>
+        <v>228</v>
       </c>
       <c r="K25" t="s">
-        <v>205</v>
+        <v>229</v>
       </c>
       <c r="L25" t="s">
-        <v>206</v>
+        <v>230</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>200</v>
+        <v>223</v>
       </c>
       <c r="O25" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P25" t="n">
         <v>5</v>
@@ -4491,50 +4929,54 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>206</v>
+        <v>230</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>37816</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>9306</v>
+      </c>
+      <c r="C26" t="s">
+        <v>231</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>207</v>
+        <v>232</v>
       </c>
       <c r="G26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="J26" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="K26" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="L26" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>200</v>
+        <v>223</v>
       </c>
       <c r="O26" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -4548,50 +4990,54 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>37816</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>136709</v>
+      </c>
+      <c r="C27" t="s">
+        <v>237</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>212</v>
+        <v>238</v>
       </c>
       <c r="G27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>213</v>
+        <v>239</v>
       </c>
       <c r="J27" t="s">
-        <v>214</v>
+        <v>240</v>
       </c>
       <c r="K27" t="s">
-        <v>215</v>
+        <v>241</v>
       </c>
       <c r="L27" t="s">
-        <v>216</v>
+        <v>242</v>
       </c>
       <c r="M27" t="n">
         <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>217</v>
+        <v>243</v>
       </c>
       <c r="O27" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -4605,50 +5051,54 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>216</v>
+        <v>242</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>37816</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>73941</v>
+      </c>
+      <c r="C28" t="s">
+        <v>244</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>218</v>
+        <v>245</v>
       </c>
       <c r="G28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>219</v>
+        <v>246</v>
       </c>
       <c r="J28" t="s">
-        <v>220</v>
+        <v>247</v>
       </c>
       <c r="K28" t="s">
-        <v>221</v>
+        <v>248</v>
       </c>
       <c r="L28" t="s">
-        <v>222</v>
+        <v>249</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>223</v>
+        <v>250</v>
       </c>
       <c r="O28" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="P28" t="n">
         <v>5</v>
@@ -4668,50 +5118,54 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>222</v>
+        <v>249</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>37816</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>136710</v>
+      </c>
+      <c r="C29" t="s">
+        <v>251</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>224</v>
+        <v>252</v>
       </c>
       <c r="G29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>225</v>
+        <v>253</v>
       </c>
       <c r="J29" t="s">
-        <v>226</v>
+        <v>254</v>
       </c>
       <c r="K29" t="s">
-        <v>227</v>
+        <v>255</v>
       </c>
       <c r="L29" t="s">
-        <v>228</v>
+        <v>256</v>
       </c>
       <c r="M29" t="n">
         <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>229</v>
+        <v>257</v>
       </c>
       <c r="O29" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -4731,50 +5185,54 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>228</v>
+        <v>256</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>37816</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>80679</v>
+      </c>
+      <c r="C30" t="s">
+        <v>258</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>230</v>
+        <v>259</v>
       </c>
       <c r="G30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>231</v>
+        <v>260</v>
       </c>
       <c r="J30" t="s">
-        <v>232</v>
+        <v>261</v>
       </c>
       <c r="K30" t="s">
-        <v>233</v>
+        <v>262</v>
       </c>
       <c r="L30" t="s">
-        <v>234</v>
+        <v>263</v>
       </c>
       <c r="M30" t="n">
         <v>3</v>
       </c>
       <c r="N30" t="s">
-        <v>235</v>
+        <v>264</v>
       </c>
       <c r="O30" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
@@ -4786,56 +5244,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="X30" t="s">
-        <v>237</v>
+        <v>266</v>
       </c>
       <c r="Y30" t="s">
-        <v>238</v>
+        <v>267</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>37816</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>7524</v>
+      </c>
+      <c r="C31" t="s">
+        <v>268</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>239</v>
+        <v>269</v>
       </c>
       <c r="G31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="J31" t="s">
-        <v>241</v>
+        <v>271</v>
       </c>
       <c r="K31" t="s">
-        <v>242</v>
+        <v>272</v>
       </c>
       <c r="L31" t="s">
-        <v>243</v>
+        <v>273</v>
       </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
       <c r="N31" t="s">
-        <v>235</v>
+        <v>264</v>
       </c>
       <c r="O31" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P31" t="n">
         <v>2</v>
@@ -4855,50 +5317,54 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>243</v>
+        <v>273</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>37816</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>4310</v>
+      </c>
+      <c r="C32" t="s">
+        <v>274</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>244</v>
+        <v>275</v>
       </c>
       <c r="G32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>245</v>
+        <v>276</v>
       </c>
       <c r="J32" t="s">
-        <v>246</v>
+        <v>277</v>
       </c>
       <c r="K32" t="s">
-        <v>247</v>
+        <v>278</v>
       </c>
       <c r="L32" t="s">
-        <v>248</v>
+        <v>279</v>
       </c>
       <c r="M32" t="n">
         <v>4</v>
       </c>
       <c r="N32" t="s">
-        <v>235</v>
+        <v>264</v>
       </c>
       <c r="O32" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
@@ -4912,50 +5378,54 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>248</v>
+        <v>279</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>37816</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>136711</v>
+      </c>
+      <c r="C33" t="s">
+        <v>280</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>249</v>
+        <v>281</v>
       </c>
       <c r="G33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>250</v>
+        <v>282</v>
       </c>
       <c r="J33" t="s">
-        <v>251</v>
+        <v>283</v>
       </c>
       <c r="K33" t="s">
-        <v>252</v>
+        <v>284</v>
       </c>
       <c r="L33" t="s">
-        <v>253</v>
+        <v>285</v>
       </c>
       <c r="M33" t="n">
         <v>2</v>
       </c>
       <c r="N33" t="s">
-        <v>235</v>
+        <v>264</v>
       </c>
       <c r="O33" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="n">
@@ -4973,56 +5443,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>254</v>
+        <v>286</v>
       </c>
       <c r="X33" t="s">
-        <v>255</v>
+        <v>287</v>
       </c>
       <c r="Y33" t="s">
-        <v>256</v>
+        <v>288</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>37816</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>136712</v>
+      </c>
+      <c r="C34" t="s">
+        <v>289</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>257</v>
+        <v>290</v>
       </c>
       <c r="G34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>258</v>
+        <v>291</v>
       </c>
       <c r="J34" t="s">
-        <v>259</v>
+        <v>292</v>
       </c>
       <c r="K34" t="s">
-        <v>260</v>
+        <v>293</v>
       </c>
       <c r="L34" t="s">
-        <v>261</v>
+        <v>294</v>
       </c>
       <c r="M34" t="n">
         <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>262</v>
+        <v>295</v>
       </c>
       <c r="O34" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="P34" t="n">
         <v>3</v>
@@ -5042,50 +5516,54 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>263</v>
+        <v>296</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>37816</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>136713</v>
+      </c>
+      <c r="C35" t="s">
+        <v>297</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>264</v>
+        <v>298</v>
       </c>
       <c r="G35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>265</v>
+        <v>299</v>
       </c>
       <c r="J35" t="s">
-        <v>266</v>
+        <v>300</v>
       </c>
       <c r="K35" t="s">
-        <v>267</v>
+        <v>301</v>
       </c>
       <c r="L35" t="s">
-        <v>268</v>
+        <v>302</v>
       </c>
       <c r="M35" t="n">
         <v>4</v>
       </c>
       <c r="N35" t="s">
-        <v>229</v>
+        <v>257</v>
       </c>
       <c r="O35" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="P35" t="n">
         <v>5</v>
@@ -5105,41 +5583,45 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>269</v>
+        <v>303</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>37816</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>136714</v>
+      </c>
+      <c r="C36" t="s">
+        <v>304</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>270</v>
+        <v>305</v>
       </c>
       <c r="G36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>271</v>
+        <v>306</v>
       </c>
       <c r="J36" t="s">
-        <v>272</v>
+        <v>307</v>
       </c>
       <c r="K36" t="s">
-        <v>273</v>
+        <v>308</v>
       </c>
       <c r="L36" t="s">
-        <v>274</v>
+        <v>309</v>
       </c>
       <c r="M36" t="n">
         <v>3</v>
@@ -5166,56 +5648,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>275</v>
+        <v>310</v>
       </c>
       <c r="X36" t="s">
-        <v>276</v>
+        <v>311</v>
       </c>
       <c r="Y36" t="s">
-        <v>277</v>
+        <v>312</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>37816</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>37916</v>
+      </c>
+      <c r="C37" t="s">
+        <v>313</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>278</v>
+        <v>314</v>
       </c>
       <c r="G37" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>279</v>
+        <v>315</v>
       </c>
       <c r="J37" t="s">
-        <v>280</v>
+        <v>316</v>
       </c>
       <c r="K37" t="s">
-        <v>281</v>
+        <v>317</v>
       </c>
       <c r="L37" t="s">
-        <v>282</v>
+        <v>318</v>
       </c>
       <c r="M37" t="n">
         <v>2</v>
       </c>
       <c r="N37" t="s">
-        <v>262</v>
+        <v>295</v>
       </c>
       <c r="O37" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
@@ -5231,56 +5717,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>283</v>
+        <v>319</v>
       </c>
       <c r="X37" t="s">
-        <v>284</v>
+        <v>320</v>
       </c>
       <c r="Y37" t="s">
-        <v>285</v>
+        <v>321</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>37816</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>136715</v>
+      </c>
+      <c r="C38" t="s">
+        <v>322</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>286</v>
+        <v>323</v>
       </c>
       <c r="G38" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>287</v>
+        <v>324</v>
       </c>
       <c r="J38" t="s">
-        <v>288</v>
+        <v>325</v>
       </c>
       <c r="K38" t="s">
-        <v>289</v>
+        <v>326</v>
       </c>
       <c r="L38" t="s">
-        <v>290</v>
+        <v>327</v>
       </c>
       <c r="M38" t="n">
         <v>3</v>
       </c>
       <c r="N38" t="s">
-        <v>262</v>
+        <v>295</v>
       </c>
       <c r="O38" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
@@ -5292,56 +5782,60 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>291</v>
+        <v>328</v>
       </c>
       <c r="X38" t="s">
-        <v>292</v>
+        <v>329</v>
       </c>
       <c r="Y38" t="s">
-        <v>293</v>
+        <v>330</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>37816</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>1237</v>
+      </c>
+      <c r="C39" t="s">
+        <v>331</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>294</v>
+        <v>332</v>
       </c>
       <c r="G39" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>295</v>
+        <v>333</v>
       </c>
       <c r="J39" t="s">
-        <v>296</v>
+        <v>334</v>
       </c>
       <c r="K39" t="s">
-        <v>297</v>
+        <v>335</v>
       </c>
       <c r="L39" t="s">
-        <v>298</v>
+        <v>336</v>
       </c>
       <c r="M39" t="n">
         <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>299</v>
+        <v>337</v>
       </c>
       <c r="O39" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
@@ -5355,50 +5849,54 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>298</v>
+        <v>336</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>37816</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>136716</v>
+      </c>
+      <c r="C40" t="s">
+        <v>338</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>300</v>
+        <v>339</v>
       </c>
       <c r="G40" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>301</v>
+        <v>340</v>
       </c>
       <c r="J40" t="s">
-        <v>302</v>
+        <v>341</v>
       </c>
       <c r="K40" t="s">
-        <v>303</v>
+        <v>342</v>
       </c>
       <c r="L40" t="s">
-        <v>304</v>
+        <v>343</v>
       </c>
       <c r="M40" t="n">
         <v>3</v>
       </c>
       <c r="N40" t="s">
-        <v>305</v>
+        <v>344</v>
       </c>
       <c r="O40" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="s"/>
@@ -5416,56 +5914,60 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>306</v>
+        <v>345</v>
       </c>
       <c r="X40" t="s">
-        <v>307</v>
+        <v>346</v>
       </c>
       <c r="Y40" t="s">
-        <v>308</v>
+        <v>347</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>37816</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>136717</v>
+      </c>
+      <c r="C41" t="s">
+        <v>348</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>309</v>
+        <v>349</v>
       </c>
       <c r="G41" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>310</v>
+        <v>350</v>
       </c>
       <c r="J41" t="s">
-        <v>311</v>
+        <v>351</v>
       </c>
       <c r="K41" t="s">
-        <v>312</v>
+        <v>352</v>
       </c>
       <c r="L41" t="s">
-        <v>313</v>
+        <v>353</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>223</v>
+        <v>250</v>
       </c>
       <c r="O41" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="n">
@@ -5483,50 +5985,54 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>313</v>
+        <v>353</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>37816</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>15609</v>
+      </c>
+      <c r="C42" t="s">
+        <v>354</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>314</v>
+        <v>355</v>
       </c>
       <c r="G42" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>315</v>
+        <v>356</v>
       </c>
       <c r="J42" t="s">
-        <v>316</v>
+        <v>357</v>
       </c>
       <c r="K42" t="s">
-        <v>317</v>
+        <v>358</v>
       </c>
       <c r="L42" t="s">
-        <v>318</v>
+        <v>359</v>
       </c>
       <c r="M42" t="n">
         <v>4</v>
       </c>
       <c r="N42" t="s">
-        <v>319</v>
+        <v>360</v>
       </c>
       <c r="O42" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="s"/>
@@ -5544,50 +6050,54 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>318</v>
+        <v>359</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>37816</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>136718</v>
+      </c>
+      <c r="C43" t="s">
+        <v>361</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>320</v>
+        <v>362</v>
       </c>
       <c r="G43" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>321</v>
+        <v>363</v>
       </c>
       <c r="J43" t="s">
-        <v>322</v>
+        <v>364</v>
       </c>
       <c r="K43" t="s">
-        <v>323</v>
+        <v>365</v>
       </c>
       <c r="L43" t="s">
-        <v>324</v>
+        <v>366</v>
       </c>
       <c r="M43" t="n">
         <v>4</v>
       </c>
       <c r="N43" t="s">
-        <v>325</v>
+        <v>367</v>
       </c>
       <c r="O43" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P43" t="n">
         <v>4</v>
@@ -5607,50 +6117,54 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>324</v>
+        <v>366</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>37816</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>136719</v>
+      </c>
+      <c r="C44" t="s">
+        <v>368</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>326</v>
+        <v>369</v>
       </c>
       <c r="G44" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>327</v>
+        <v>370</v>
       </c>
       <c r="J44" t="s">
-        <v>328</v>
+        <v>371</v>
       </c>
       <c r="K44" t="s">
-        <v>329</v>
+        <v>372</v>
       </c>
       <c r="L44" t="s">
-        <v>330</v>
+        <v>373</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>331</v>
+        <v>374</v>
       </c>
       <c r="O44" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P44" t="s"/>
       <c r="Q44" t="n">
@@ -5668,50 +6182,54 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>330</v>
+        <v>373</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>37816</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>136720</v>
+      </c>
+      <c r="C45" t="s">
+        <v>375</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>332</v>
+        <v>376</v>
       </c>
       <c r="G45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>333</v>
+        <v>377</v>
       </c>
       <c r="J45" t="s">
-        <v>334</v>
+        <v>378</v>
       </c>
       <c r="K45" t="s">
-        <v>335</v>
+        <v>379</v>
       </c>
       <c r="L45" t="s">
-        <v>336</v>
+        <v>380</v>
       </c>
       <c r="M45" t="n">
         <v>4</v>
       </c>
       <c r="N45" t="s">
-        <v>331</v>
+        <v>374</v>
       </c>
       <c r="O45" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P45" t="s"/>
       <c r="Q45" t="s"/>
@@ -5725,50 +6243,54 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>337</v>
+        <v>381</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>37816</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>136721</v>
+      </c>
+      <c r="C46" t="s">
+        <v>382</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>338</v>
+        <v>383</v>
       </c>
       <c r="G46" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>339</v>
+        <v>384</v>
       </c>
       <c r="J46" t="s">
-        <v>340</v>
+        <v>385</v>
       </c>
       <c r="K46" t="s">
-        <v>341</v>
+        <v>386</v>
       </c>
       <c r="L46" t="s">
-        <v>342</v>
+        <v>387</v>
       </c>
       <c r="M46" t="n">
         <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>343</v>
+        <v>388</v>
       </c>
       <c r="O46" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P46" t="s"/>
       <c r="Q46" t="s"/>
@@ -5786,50 +6308,54 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>342</v>
+        <v>387</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>37816</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>4584</v>
+      </c>
+      <c r="C47" t="s">
+        <v>389</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>344</v>
+        <v>390</v>
       </c>
       <c r="G47" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>345</v>
+        <v>391</v>
       </c>
       <c r="J47" t="s">
-        <v>346</v>
+        <v>392</v>
       </c>
       <c r="K47" t="s">
-        <v>347</v>
+        <v>393</v>
       </c>
       <c r="L47" t="s">
-        <v>348</v>
+        <v>394</v>
       </c>
       <c r="M47" t="n">
         <v>3</v>
       </c>
       <c r="N47" t="s">
-        <v>343</v>
+        <v>388</v>
       </c>
       <c r="O47" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="P47" t="s"/>
       <c r="Q47" t="s"/>
@@ -5841,56 +6367,60 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>349</v>
+        <v>395</v>
       </c>
       <c r="X47" t="s">
-        <v>350</v>
+        <v>396</v>
       </c>
       <c r="Y47" t="s">
-        <v>351</v>
+        <v>397</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>37816</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>136722</v>
+      </c>
+      <c r="C48" t="s">
+        <v>398</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>352</v>
+        <v>399</v>
       </c>
       <c r="G48" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>353</v>
+        <v>400</v>
       </c>
       <c r="J48" t="s">
-        <v>354</v>
+        <v>401</v>
       </c>
       <c r="K48" t="s">
-        <v>355</v>
+        <v>402</v>
       </c>
       <c r="L48" t="s">
-        <v>356</v>
+        <v>403</v>
       </c>
       <c r="M48" t="n">
         <v>3</v>
       </c>
       <c r="N48" t="s">
-        <v>343</v>
+        <v>388</v>
       </c>
       <c r="O48" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P48" t="s"/>
       <c r="Q48" t="s"/>
@@ -5902,56 +6432,60 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>357</v>
+        <v>404</v>
       </c>
       <c r="X48" t="s">
-        <v>358</v>
+        <v>405</v>
       </c>
       <c r="Y48" t="s">
-        <v>359</v>
+        <v>406</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>37816</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>408</v>
+      </c>
+      <c r="C49" t="s">
+        <v>407</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>360</v>
+        <v>408</v>
       </c>
       <c r="G49" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>361</v>
+        <v>409</v>
       </c>
       <c r="J49" t="s">
-        <v>362</v>
+        <v>410</v>
       </c>
       <c r="K49" t="s">
-        <v>363</v>
+        <v>411</v>
       </c>
       <c r="L49" t="s">
-        <v>364</v>
+        <v>412</v>
       </c>
       <c r="M49" t="n">
         <v>4</v>
       </c>
       <c r="N49" t="s">
-        <v>365</v>
+        <v>413</v>
       </c>
       <c r="O49" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P49" t="s"/>
       <c r="Q49" t="s"/>
@@ -5969,41 +6503,45 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>366</v>
+        <v>414</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>37816</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>136723</v>
+      </c>
+      <c r="C50" t="s">
+        <v>415</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>367</v>
+        <v>416</v>
       </c>
       <c r="G50" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>368</v>
+        <v>417</v>
       </c>
       <c r="J50" t="s">
-        <v>369</v>
+        <v>418</v>
       </c>
       <c r="K50" t="s">
-        <v>370</v>
+        <v>419</v>
       </c>
       <c r="L50" t="s">
-        <v>371</v>
+        <v>420</v>
       </c>
       <c r="M50" t="n">
         <v>4</v>
@@ -6022,50 +6560,54 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>371</v>
+        <v>420</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>37816</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>136724</v>
+      </c>
+      <c r="C51" t="s">
+        <v>421</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>372</v>
+        <v>422</v>
       </c>
       <c r="G51" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>373</v>
+        <v>423</v>
       </c>
       <c r="J51" t="s">
-        <v>374</v>
+        <v>424</v>
       </c>
       <c r="K51" t="s">
-        <v>375</v>
+        <v>425</v>
       </c>
       <c r="L51" t="s">
-        <v>376</v>
+        <v>426</v>
       </c>
       <c r="M51" t="n">
         <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>377</v>
+        <v>427</v>
       </c>
       <c r="O51" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P51" t="n">
         <v>5</v>
@@ -6085,50 +6627,54 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>378</v>
+        <v>428</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>37816</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>136695</v>
+      </c>
+      <c r="C52" t="s">
+        <v>63</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>379</v>
+        <v>429</v>
       </c>
       <c r="G52" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>380</v>
+        <v>430</v>
       </c>
       <c r="J52" t="s">
-        <v>381</v>
+        <v>431</v>
       </c>
       <c r="K52" t="s">
-        <v>382</v>
+        <v>432</v>
       </c>
       <c r="L52" t="s">
-        <v>383</v>
+        <v>433</v>
       </c>
       <c r="M52" t="n">
         <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>384</v>
+        <v>434</v>
       </c>
       <c r="O52" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P52" t="s"/>
       <c r="Q52" t="s"/>
@@ -6142,50 +6688,54 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>383</v>
+        <v>433</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>37816</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>136725</v>
+      </c>
+      <c r="C53" t="s">
+        <v>435</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>385</v>
+        <v>436</v>
       </c>
       <c r="G53" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>386</v>
+        <v>437</v>
       </c>
       <c r="J53" t="s">
-        <v>387</v>
+        <v>438</v>
       </c>
       <c r="K53" t="s">
-        <v>388</v>
+        <v>439</v>
       </c>
       <c r="L53" t="s">
-        <v>389</v>
+        <v>440</v>
       </c>
       <c r="M53" t="n">
         <v>3</v>
       </c>
       <c r="N53" t="s">
-        <v>390</v>
+        <v>441</v>
       </c>
       <c r="O53" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P53" t="n">
         <v>3</v>
@@ -6201,56 +6751,60 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>391</v>
+        <v>442</v>
       </c>
       <c r="X53" t="s">
-        <v>392</v>
+        <v>443</v>
       </c>
       <c r="Y53" t="s">
-        <v>393</v>
+        <v>444</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>37816</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>136726</v>
+      </c>
+      <c r="C54" t="s">
+        <v>445</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>394</v>
+        <v>446</v>
       </c>
       <c r="G54" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>395</v>
+        <v>447</v>
       </c>
       <c r="J54" t="s">
-        <v>396</v>
+        <v>448</v>
       </c>
       <c r="K54" t="s">
-        <v>397</v>
+        <v>449</v>
       </c>
       <c r="L54" t="s">
-        <v>398</v>
+        <v>450</v>
       </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
       <c r="N54" t="s">
-        <v>399</v>
+        <v>451</v>
       </c>
       <c r="O54" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P54" t="n">
         <v>1</v>
@@ -6268,56 +6822,60 @@
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>400</v>
+        <v>452</v>
       </c>
       <c r="X54" t="s">
-        <v>401</v>
+        <v>453</v>
       </c>
       <c r="Y54" t="s">
-        <v>402</v>
+        <v>454</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>37816</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>136727</v>
+      </c>
+      <c r="C55" t="s">
+        <v>455</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>403</v>
+        <v>456</v>
       </c>
       <c r="G55" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I55" t="s">
-        <v>404</v>
+        <v>457</v>
       </c>
       <c r="J55" t="s">
-        <v>405</v>
+        <v>458</v>
       </c>
       <c r="K55" t="s">
-        <v>406</v>
+        <v>459</v>
       </c>
       <c r="L55" t="s">
-        <v>407</v>
+        <v>460</v>
       </c>
       <c r="M55" t="n">
         <v>5</v>
       </c>
       <c r="N55" t="s">
-        <v>408</v>
+        <v>461</v>
       </c>
       <c r="O55" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="P55" t="s"/>
       <c r="Q55" t="s"/>
@@ -6333,56 +6891,60 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>409</v>
+        <v>462</v>
       </c>
       <c r="X55" t="s">
-        <v>410</v>
+        <v>463</v>
       </c>
       <c r="Y55" t="s">
-        <v>411</v>
+        <v>464</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>37816</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>136728</v>
+      </c>
+      <c r="C56" t="s">
+        <v>465</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>412</v>
+        <v>466</v>
       </c>
       <c r="G56" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I56" t="s">
-        <v>413</v>
+        <v>467</v>
       </c>
       <c r="J56" t="s">
-        <v>414</v>
+        <v>468</v>
       </c>
       <c r="K56" t="s">
-        <v>415</v>
+        <v>469</v>
       </c>
       <c r="L56" t="s">
-        <v>416</v>
+        <v>470</v>
       </c>
       <c r="M56" t="n">
         <v>3</v>
       </c>
       <c r="N56" t="s">
-        <v>417</v>
+        <v>471</v>
       </c>
       <c r="O56" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="P56" t="n">
         <v>4</v>
@@ -6400,56 +6962,60 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>418</v>
+        <v>472</v>
       </c>
       <c r="X56" t="s">
-        <v>419</v>
+        <v>473</v>
       </c>
       <c r="Y56" t="s">
-        <v>420</v>
+        <v>474</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>37816</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>136729</v>
+      </c>
+      <c r="C57" t="s">
+        <v>475</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F57" t="s">
-        <v>421</v>
+        <v>476</v>
       </c>
       <c r="G57" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I57" t="s">
-        <v>422</v>
+        <v>477</v>
       </c>
       <c r="J57" t="s">
-        <v>423</v>
+        <v>478</v>
       </c>
       <c r="K57" t="s">
-        <v>424</v>
+        <v>479</v>
       </c>
       <c r="L57" t="s">
-        <v>425</v>
+        <v>480</v>
       </c>
       <c r="M57" t="n">
         <v>3</v>
       </c>
       <c r="N57" t="s">
-        <v>426</v>
+        <v>481</v>
       </c>
       <c r="O57" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P57" t="n">
         <v>4</v>
@@ -6471,56 +7037,60 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>427</v>
+        <v>482</v>
       </c>
       <c r="X57" t="s">
-        <v>428</v>
+        <v>483</v>
       </c>
       <c r="Y57" t="s">
-        <v>429</v>
+        <v>484</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>37816</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>128073</v>
+      </c>
+      <c r="C58" t="s">
+        <v>485</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F58" t="s">
-        <v>430</v>
+        <v>486</v>
       </c>
       <c r="G58" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I58" t="s">
-        <v>431</v>
+        <v>487</v>
       </c>
       <c r="J58" t="s">
-        <v>432</v>
+        <v>488</v>
       </c>
       <c r="K58" t="s">
-        <v>433</v>
+        <v>489</v>
       </c>
       <c r="L58" t="s">
-        <v>434</v>
+        <v>490</v>
       </c>
       <c r="M58" t="n">
         <v>5</v>
       </c>
       <c r="N58" t="s">
-        <v>426</v>
+        <v>481</v>
       </c>
       <c r="O58" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P58" t="s"/>
       <c r="Q58" t="n">
@@ -6538,56 +7108,60 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>435</v>
+        <v>491</v>
       </c>
       <c r="X58" t="s">
-        <v>436</v>
+        <v>492</v>
       </c>
       <c r="Y58" t="s">
-        <v>437</v>
+        <v>493</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>37816</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>80714</v>
+      </c>
+      <c r="C59" t="s">
+        <v>494</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F59" t="s">
-        <v>438</v>
+        <v>495</v>
       </c>
       <c r="G59" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I59" t="s">
-        <v>439</v>
+        <v>496</v>
       </c>
       <c r="J59" t="s">
-        <v>440</v>
+        <v>497</v>
       </c>
       <c r="K59" t="s">
-        <v>441</v>
+        <v>498</v>
       </c>
       <c r="L59" t="s">
-        <v>442</v>
+        <v>499</v>
       </c>
       <c r="M59" t="n">
         <v>4</v>
       </c>
       <c r="N59" t="s">
-        <v>426</v>
+        <v>481</v>
       </c>
       <c r="O59" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P59" t="n">
         <v>4</v>
@@ -6605,56 +7179,60 @@
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>443</v>
+        <v>500</v>
       </c>
       <c r="X59" t="s">
-        <v>444</v>
+        <v>501</v>
       </c>
       <c r="Y59" t="s">
-        <v>445</v>
+        <v>502</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>37816</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>136730</v>
+      </c>
+      <c r="C60" t="s">
+        <v>503</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F60" t="s">
-        <v>446</v>
+        <v>504</v>
       </c>
       <c r="G60" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I60" t="s">
-        <v>447</v>
+        <v>505</v>
       </c>
       <c r="J60" t="s">
-        <v>448</v>
+        <v>506</v>
       </c>
       <c r="K60" t="s">
-        <v>449</v>
+        <v>507</v>
       </c>
       <c r="L60" t="s">
-        <v>450</v>
+        <v>508</v>
       </c>
       <c r="M60" t="n">
         <v>4</v>
       </c>
       <c r="N60" t="s">
-        <v>451</v>
+        <v>509</v>
       </c>
       <c r="O60" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="P60" t="s"/>
       <c r="Q60" t="n">
@@ -6672,56 +7250,60 @@
         <v>0</v>
       </c>
       <c r="W60" t="s">
-        <v>452</v>
+        <v>510</v>
       </c>
       <c r="X60" t="s">
-        <v>453</v>
+        <v>511</v>
       </c>
       <c r="Y60" t="s">
-        <v>454</v>
+        <v>512</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>37816</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>136731</v>
+      </c>
+      <c r="C61" t="s">
+        <v>513</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F61" t="s">
-        <v>455</v>
+        <v>514</v>
       </c>
       <c r="G61" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I61" t="s">
-        <v>456</v>
+        <v>515</v>
       </c>
       <c r="J61" t="s">
-        <v>457</v>
+        <v>516</v>
       </c>
       <c r="K61" t="s">
-        <v>458</v>
+        <v>517</v>
       </c>
       <c r="L61" t="s">
-        <v>459</v>
+        <v>518</v>
       </c>
       <c r="M61" t="n">
         <v>4</v>
       </c>
       <c r="N61" t="s">
-        <v>408</v>
+        <v>461</v>
       </c>
       <c r="O61" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="P61" t="s"/>
       <c r="Q61" t="s"/>
@@ -6733,56 +7315,60 @@
         <v>0</v>
       </c>
       <c r="W61" t="s">
-        <v>460</v>
+        <v>519</v>
       </c>
       <c r="X61" t="s">
-        <v>461</v>
+        <v>520</v>
       </c>
       <c r="Y61" t="s">
-        <v>462</v>
+        <v>521</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>37816</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>136732</v>
+      </c>
+      <c r="C62" t="s">
+        <v>522</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F62" t="s">
-        <v>463</v>
+        <v>523</v>
       </c>
       <c r="G62" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I62" t="s">
-        <v>464</v>
+        <v>524</v>
       </c>
       <c r="J62" t="s">
-        <v>465</v>
+        <v>525</v>
       </c>
       <c r="K62" t="s">
-        <v>466</v>
+        <v>526</v>
       </c>
       <c r="L62" t="s">
-        <v>467</v>
+        <v>527</v>
       </c>
       <c r="M62" t="n">
         <v>3</v>
       </c>
       <c r="N62" t="s">
-        <v>451</v>
+        <v>509</v>
       </c>
       <c r="O62" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="P62" t="s"/>
       <c r="Q62" t="n">
@@ -6798,56 +7384,60 @@
         <v>0</v>
       </c>
       <c r="W62" t="s">
-        <v>468</v>
+        <v>528</v>
       </c>
       <c r="X62" t="s">
-        <v>469</v>
+        <v>529</v>
       </c>
       <c r="Y62" t="s">
-        <v>470</v>
+        <v>530</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>37816</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>136733</v>
+      </c>
+      <c r="C63" t="s">
+        <v>531</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F63" t="s">
-        <v>471</v>
+        <v>532</v>
       </c>
       <c r="G63" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I63" t="s">
-        <v>472</v>
+        <v>533</v>
       </c>
       <c r="J63" t="s">
-        <v>473</v>
+        <v>534</v>
       </c>
       <c r="K63" t="s">
-        <v>474</v>
+        <v>535</v>
       </c>
       <c r="L63" t="s">
-        <v>475</v>
+        <v>536</v>
       </c>
       <c r="M63" t="n">
         <v>5</v>
       </c>
       <c r="N63" t="s">
-        <v>476</v>
+        <v>537</v>
       </c>
       <c r="O63" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P63" t="s"/>
       <c r="Q63" t="s"/>
@@ -6859,56 +7449,60 @@
         <v>0</v>
       </c>
       <c r="W63" t="s">
-        <v>477</v>
+        <v>538</v>
       </c>
       <c r="X63" t="s">
-        <v>478</v>
+        <v>539</v>
       </c>
       <c r="Y63" t="s">
-        <v>479</v>
+        <v>540</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>37816</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>136734</v>
+      </c>
+      <c r="C64" t="s">
+        <v>541</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F64" t="s">
-        <v>480</v>
+        <v>542</v>
       </c>
       <c r="G64" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I64" t="s">
-        <v>481</v>
+        <v>543</v>
       </c>
       <c r="J64" t="s">
-        <v>482</v>
+        <v>544</v>
       </c>
       <c r="K64" t="s">
-        <v>483</v>
+        <v>545</v>
       </c>
       <c r="L64" t="s">
-        <v>484</v>
+        <v>546</v>
       </c>
       <c r="M64" t="n">
         <v>3</v>
       </c>
       <c r="N64" t="s">
-        <v>485</v>
+        <v>547</v>
       </c>
       <c r="O64" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="P64" t="n">
         <v>4</v>
@@ -6930,56 +7524,60 @@
         <v>0</v>
       </c>
       <c r="W64" t="s">
-        <v>486</v>
+        <v>548</v>
       </c>
       <c r="X64" t="s">
-        <v>487</v>
+        <v>549</v>
       </c>
       <c r="Y64" t="s">
-        <v>488</v>
+        <v>550</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>37816</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>136735</v>
+      </c>
+      <c r="C65" t="s">
+        <v>551</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F65" t="s">
-        <v>489</v>
+        <v>552</v>
       </c>
       <c r="G65" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I65" t="s">
-        <v>490</v>
+        <v>553</v>
       </c>
       <c r="J65" t="s">
-        <v>491</v>
+        <v>554</v>
       </c>
       <c r="K65" t="s">
-        <v>492</v>
+        <v>555</v>
       </c>
       <c r="L65" t="s">
-        <v>493</v>
+        <v>556</v>
       </c>
       <c r="M65" t="n">
         <v>5</v>
       </c>
       <c r="N65" t="s">
-        <v>494</v>
+        <v>557</v>
       </c>
       <c r="O65" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P65" t="n">
         <v>5</v>
@@ -7001,56 +7599,60 @@
         <v>0</v>
       </c>
       <c r="W65" t="s">
-        <v>495</v>
+        <v>558</v>
       </c>
       <c r="X65" t="s">
-        <v>496</v>
+        <v>559</v>
       </c>
       <c r="Y65" t="s">
-        <v>497</v>
+        <v>560</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>37816</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>136736</v>
+      </c>
+      <c r="C66" t="s">
+        <v>561</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F66" t="s">
-        <v>498</v>
+        <v>562</v>
       </c>
       <c r="G66" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I66" t="s">
-        <v>499</v>
+        <v>563</v>
       </c>
       <c r="J66" t="s">
-        <v>500</v>
+        <v>564</v>
       </c>
       <c r="K66" t="s">
-        <v>501</v>
+        <v>565</v>
       </c>
       <c r="L66" t="s">
-        <v>502</v>
+        <v>566</v>
       </c>
       <c r="M66" t="n">
         <v>2</v>
       </c>
       <c r="N66" t="s">
-        <v>494</v>
+        <v>557</v>
       </c>
       <c r="O66" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P66" t="n">
         <v>2</v>
@@ -7072,56 +7674,60 @@
         <v>0</v>
       </c>
       <c r="W66" t="s">
-        <v>495</v>
+        <v>558</v>
       </c>
       <c r="X66" t="s">
-        <v>496</v>
+        <v>559</v>
       </c>
       <c r="Y66" t="s">
-        <v>503</v>
+        <v>567</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>37816</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>80714</v>
+      </c>
+      <c r="C67" t="s">
+        <v>494</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F67" t="s">
-        <v>504</v>
+        <v>568</v>
       </c>
       <c r="G67" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I67" t="s">
-        <v>505</v>
+        <v>569</v>
       </c>
       <c r="J67" t="s">
-        <v>506</v>
+        <v>570</v>
       </c>
       <c r="K67" t="s">
-        <v>507</v>
+        <v>571</v>
       </c>
       <c r="L67" t="s">
-        <v>508</v>
+        <v>572</v>
       </c>
       <c r="M67" t="n">
         <v>4</v>
       </c>
       <c r="N67" t="s">
-        <v>509</v>
+        <v>573</v>
       </c>
       <c r="O67" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P67" t="n">
         <v>4</v>
@@ -7143,56 +7749,60 @@
         <v>0</v>
       </c>
       <c r="W67" t="s">
-        <v>495</v>
+        <v>558</v>
       </c>
       <c r="X67" t="s">
-        <v>496</v>
+        <v>559</v>
       </c>
       <c r="Y67" t="s">
-        <v>510</v>
+        <v>574</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>37816</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>136737</v>
+      </c>
+      <c r="C68" t="s">
+        <v>575</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F68" t="s">
-        <v>511</v>
+        <v>576</v>
       </c>
       <c r="G68" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I68" t="s">
-        <v>512</v>
+        <v>577</v>
       </c>
       <c r="J68" t="s">
-        <v>513</v>
+        <v>578</v>
       </c>
       <c r="K68" t="s">
-        <v>514</v>
+        <v>579</v>
       </c>
       <c r="L68" t="s">
-        <v>515</v>
+        <v>580</v>
       </c>
       <c r="M68" t="n">
         <v>4</v>
       </c>
       <c r="N68" t="s">
-        <v>516</v>
+        <v>581</v>
       </c>
       <c r="O68" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P68" t="n">
         <v>4</v>
@@ -7214,56 +7824,60 @@
         <v>0</v>
       </c>
       <c r="W68" t="s">
-        <v>517</v>
+        <v>582</v>
       </c>
       <c r="X68" t="s">
-        <v>518</v>
+        <v>583</v>
       </c>
       <c r="Y68" t="s">
-        <v>519</v>
+        <v>584</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>37816</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>136738</v>
+      </c>
+      <c r="C69" t="s">
+        <v>585</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F69" t="s">
-        <v>520</v>
+        <v>586</v>
       </c>
       <c r="G69" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I69" t="s">
-        <v>521</v>
+        <v>587</v>
       </c>
       <c r="J69" t="s">
-        <v>522</v>
+        <v>588</v>
       </c>
       <c r="K69" t="s">
-        <v>523</v>
+        <v>589</v>
       </c>
       <c r="L69" t="s">
-        <v>524</v>
+        <v>590</v>
       </c>
       <c r="M69" t="n">
         <v>4</v>
       </c>
       <c r="N69" t="s">
-        <v>509</v>
+        <v>573</v>
       </c>
       <c r="O69" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="P69" t="n">
         <v>4</v>
@@ -7285,56 +7899,60 @@
         <v>0</v>
       </c>
       <c r="W69" t="s">
-        <v>525</v>
+        <v>591</v>
       </c>
       <c r="X69" t="s">
-        <v>526</v>
+        <v>592</v>
       </c>
       <c r="Y69" t="s">
-        <v>527</v>
+        <v>593</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>37816</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>38652</v>
+      </c>
+      <c r="C70" t="s">
+        <v>594</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F70" t="s">
-        <v>528</v>
+        <v>595</v>
       </c>
       <c r="G70" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I70" t="s">
-        <v>529</v>
+        <v>596</v>
       </c>
       <c r="J70" t="s">
-        <v>530</v>
+        <v>597</v>
       </c>
       <c r="K70" t="s">
-        <v>531</v>
+        <v>598</v>
       </c>
       <c r="L70" t="s">
-        <v>532</v>
+        <v>599</v>
       </c>
       <c r="M70" t="n">
         <v>5</v>
       </c>
       <c r="N70" t="s">
-        <v>533</v>
+        <v>600</v>
       </c>
       <c r="O70" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P70" t="n">
         <v>5</v>
@@ -7358,50 +7976,54 @@
       <c r="W70" t="s"/>
       <c r="X70" t="s"/>
       <c r="Y70" t="s">
-        <v>534</v>
+        <v>601</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>37816</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>76813</v>
+      </c>
+      <c r="C71" t="s">
+        <v>602</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F71" t="s">
-        <v>535</v>
+        <v>603</v>
       </c>
       <c r="G71" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I71" t="s">
-        <v>536</v>
+        <v>604</v>
       </c>
       <c r="J71" t="s">
-        <v>537</v>
+        <v>605</v>
       </c>
       <c r="K71" t="s">
-        <v>538</v>
+        <v>606</v>
       </c>
       <c r="L71" t="s">
-        <v>539</v>
+        <v>607</v>
       </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
       <c r="N71" t="s">
-        <v>509</v>
+        <v>573</v>
       </c>
       <c r="O71" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="P71" t="n">
         <v>1</v>
@@ -7425,50 +8047,54 @@
       <c r="W71" t="s"/>
       <c r="X71" t="s"/>
       <c r="Y71" t="s">
-        <v>539</v>
+        <v>607</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>37816</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>136739</v>
+      </c>
+      <c r="C72" t="s">
+        <v>608</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F72" t="s">
-        <v>540</v>
+        <v>609</v>
       </c>
       <c r="G72" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I72" t="s">
-        <v>541</v>
+        <v>610</v>
       </c>
       <c r="J72" t="s">
-        <v>542</v>
+        <v>611</v>
       </c>
       <c r="K72" t="s">
-        <v>543</v>
+        <v>612</v>
       </c>
       <c r="L72" t="s">
-        <v>544</v>
+        <v>613</v>
       </c>
       <c r="M72" t="n">
         <v>3</v>
       </c>
       <c r="N72" t="s">
-        <v>509</v>
+        <v>573</v>
       </c>
       <c r="O72" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="P72" t="s"/>
       <c r="Q72" t="s"/>
@@ -7482,50 +8108,54 @@
       <c r="W72" t="s"/>
       <c r="X72" t="s"/>
       <c r="Y72" t="s">
-        <v>544</v>
+        <v>613</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>37816</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>136740</v>
+      </c>
+      <c r="C73" t="s">
+        <v>614</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F73" t="s">
-        <v>545</v>
+        <v>615</v>
       </c>
       <c r="G73" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I73" t="s">
-        <v>546</v>
+        <v>616</v>
       </c>
       <c r="J73" t="s">
-        <v>547</v>
+        <v>617</v>
       </c>
       <c r="K73" t="s">
-        <v>548</v>
+        <v>618</v>
       </c>
       <c r="L73" t="s">
-        <v>549</v>
+        <v>619</v>
       </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
       <c r="N73" t="s">
-        <v>509</v>
+        <v>573</v>
       </c>
       <c r="O73" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P73" t="n">
         <v>2</v>
@@ -7549,50 +8179,54 @@
       <c r="W73" t="s"/>
       <c r="X73" t="s"/>
       <c r="Y73" t="s">
-        <v>550</v>
+        <v>620</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>37816</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>136741</v>
+      </c>
+      <c r="C74" t="s">
+        <v>621</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F74" t="s">
-        <v>551</v>
+        <v>622</v>
       </c>
       <c r="G74" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I74" t="s">
-        <v>552</v>
+        <v>623</v>
       </c>
       <c r="J74" t="s">
-        <v>553</v>
+        <v>624</v>
       </c>
       <c r="K74" t="s">
-        <v>554</v>
+        <v>625</v>
       </c>
       <c r="L74" t="s">
-        <v>555</v>
+        <v>626</v>
       </c>
       <c r="M74" t="n">
         <v>5</v>
       </c>
       <c r="N74" t="s">
-        <v>556</v>
+        <v>627</v>
       </c>
       <c r="O74" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="P74" t="n">
         <v>5</v>
@@ -7616,41 +8250,45 @@
       <c r="W74" t="s"/>
       <c r="X74" t="s"/>
       <c r="Y74" t="s">
-        <v>557</v>
+        <v>628</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>37816</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>136742</v>
+      </c>
+      <c r="C75" t="s">
+        <v>629</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F75" t="s">
-        <v>558</v>
+        <v>630</v>
       </c>
       <c r="G75" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I75" t="s">
-        <v>559</v>
+        <v>631</v>
       </c>
       <c r="J75" t="s">
-        <v>560</v>
+        <v>632</v>
       </c>
       <c r="K75" t="s">
-        <v>561</v>
+        <v>633</v>
       </c>
       <c r="L75" t="s">
-        <v>562</v>
+        <v>634</v>
       </c>
       <c r="M75" t="n">
         <v>3</v>
@@ -7679,50 +8317,54 @@
       <c r="W75" t="s"/>
       <c r="X75" t="s"/>
       <c r="Y75" t="s">
-        <v>562</v>
+        <v>634</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>37816</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>136743</v>
+      </c>
+      <c r="C76" t="s">
+        <v>635</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F76" t="s">
-        <v>563</v>
+        <v>636</v>
       </c>
       <c r="G76" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I76" t="s">
-        <v>564</v>
+        <v>637</v>
       </c>
       <c r="J76" t="s">
-        <v>565</v>
+        <v>638</v>
       </c>
       <c r="K76" t="s">
-        <v>566</v>
+        <v>639</v>
       </c>
       <c r="L76" t="s">
-        <v>567</v>
+        <v>640</v>
       </c>
       <c r="M76" t="n">
         <v>4</v>
       </c>
       <c r="N76" t="s">
-        <v>568</v>
+        <v>641</v>
       </c>
       <c r="O76" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="P76" t="n">
         <v>5</v>
@@ -7746,41 +8388,45 @@
       <c r="W76" t="s"/>
       <c r="X76" t="s"/>
       <c r="Y76" t="s">
-        <v>567</v>
+        <v>640</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>37816</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>136744</v>
+      </c>
+      <c r="C77" t="s">
+        <v>642</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F77" t="s">
-        <v>569</v>
+        <v>643</v>
       </c>
       <c r="G77" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I77" t="s">
-        <v>570</v>
+        <v>644</v>
       </c>
       <c r="J77" t="s">
-        <v>571</v>
+        <v>645</v>
       </c>
       <c r="K77" t="s">
-        <v>572</v>
+        <v>646</v>
       </c>
       <c r="L77" t="s">
-        <v>573</v>
+        <v>647</v>
       </c>
       <c r="M77" t="n">
         <v>2</v>
@@ -7809,50 +8455,54 @@
       <c r="W77" t="s"/>
       <c r="X77" t="s"/>
       <c r="Y77" t="s">
-        <v>573</v>
+        <v>647</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>37816</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>136745</v>
+      </c>
+      <c r="C78" t="s">
+        <v>648</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F78" t="s">
-        <v>574</v>
+        <v>649</v>
       </c>
       <c r="G78" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I78" t="s">
-        <v>575</v>
+        <v>650</v>
       </c>
       <c r="J78" t="s">
-        <v>576</v>
+        <v>651</v>
       </c>
       <c r="K78" t="s">
-        <v>577</v>
+        <v>652</v>
       </c>
       <c r="L78" t="s">
-        <v>578</v>
+        <v>653</v>
       </c>
       <c r="M78" t="n">
         <v>4</v>
       </c>
       <c r="N78" t="s">
-        <v>579</v>
+        <v>654</v>
       </c>
       <c r="O78" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="P78" t="n">
         <v>3</v>
@@ -7876,50 +8526,54 @@
       <c r="W78" t="s"/>
       <c r="X78" t="s"/>
       <c r="Y78" t="s">
-        <v>578</v>
+        <v>653</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>37816</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>136746</v>
+      </c>
+      <c r="C79" t="s">
+        <v>655</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F79" t="s">
-        <v>580</v>
+        <v>656</v>
       </c>
       <c r="G79" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I79" t="s">
-        <v>581</v>
+        <v>657</v>
       </c>
       <c r="J79" t="s">
-        <v>582</v>
+        <v>658</v>
       </c>
       <c r="K79" t="s">
-        <v>583</v>
+        <v>659</v>
       </c>
       <c r="L79" t="s">
-        <v>584</v>
+        <v>660</v>
       </c>
       <c r="M79" t="n">
         <v>5</v>
       </c>
       <c r="N79" t="s">
-        <v>585</v>
+        <v>661</v>
       </c>
       <c r="O79" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P79" t="n">
         <v>5</v>
@@ -7943,41 +8597,45 @@
       <c r="W79" t="s"/>
       <c r="X79" t="s"/>
       <c r="Y79" t="s">
-        <v>586</v>
+        <v>662</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>37816</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>136747</v>
+      </c>
+      <c r="C80" t="s">
+        <v>663</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F80" t="s">
-        <v>587</v>
+        <v>664</v>
       </c>
       <c r="G80" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I80" t="s">
-        <v>588</v>
+        <v>665</v>
       </c>
       <c r="J80" t="s">
-        <v>589</v>
+        <v>666</v>
       </c>
       <c r="K80" t="s">
-        <v>590</v>
+        <v>667</v>
       </c>
       <c r="L80" t="s">
-        <v>591</v>
+        <v>668</v>
       </c>
       <c r="M80" t="n">
         <v>4</v>
@@ -8006,50 +8664,54 @@
       <c r="W80" t="s"/>
       <c r="X80" t="s"/>
       <c r="Y80" t="s">
-        <v>591</v>
+        <v>668</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>37816</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>64158</v>
+      </c>
+      <c r="C81" t="s">
+        <v>669</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F81" t="s">
-        <v>592</v>
+        <v>670</v>
       </c>
       <c r="G81" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I81" t="s">
-        <v>593</v>
+        <v>671</v>
       </c>
       <c r="J81" t="s">
-        <v>594</v>
+        <v>672</v>
       </c>
       <c r="K81" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="L81" t="s">
-        <v>595</v>
+        <v>673</v>
       </c>
       <c r="M81" t="n">
         <v>4</v>
       </c>
       <c r="N81" t="s">
-        <v>596</v>
+        <v>674</v>
       </c>
       <c r="O81" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P81" t="n">
         <v>4</v>
@@ -8073,50 +8735,54 @@
       <c r="W81" t="s"/>
       <c r="X81" t="s"/>
       <c r="Y81" t="s">
-        <v>597</v>
+        <v>675</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>37816</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>136748</v>
+      </c>
+      <c r="C82" t="s">
+        <v>676</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F82" t="s">
-        <v>598</v>
+        <v>677</v>
       </c>
       <c r="G82" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I82" t="s">
-        <v>599</v>
+        <v>678</v>
       </c>
       <c r="J82" t="s">
-        <v>600</v>
+        <v>679</v>
       </c>
       <c r="K82" t="s">
-        <v>601</v>
+        <v>680</v>
       </c>
       <c r="L82" t="s">
-        <v>602</v>
+        <v>681</v>
       </c>
       <c r="M82" t="n">
         <v>4</v>
       </c>
       <c r="N82" t="s">
-        <v>596</v>
+        <v>674</v>
       </c>
       <c r="O82" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P82" t="n">
         <v>4</v>
@@ -8140,50 +8806,54 @@
       <c r="W82" t="s"/>
       <c r="X82" t="s"/>
       <c r="Y82" t="s">
-        <v>602</v>
+        <v>681</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>37816</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>78524</v>
+      </c>
+      <c r="C83" t="s">
+        <v>682</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F83" t="s">
-        <v>603</v>
+        <v>683</v>
       </c>
       <c r="G83" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I83" t="s">
-        <v>604</v>
+        <v>684</v>
       </c>
       <c r="J83" t="s">
-        <v>605</v>
+        <v>685</v>
       </c>
       <c r="K83" t="s">
-        <v>606</v>
+        <v>686</v>
       </c>
       <c r="L83" t="s">
-        <v>607</v>
+        <v>687</v>
       </c>
       <c r="M83" t="n">
         <v>5</v>
       </c>
       <c r="N83" t="s">
-        <v>608</v>
+        <v>688</v>
       </c>
       <c r="O83" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="P83" t="n">
         <v>5</v>
@@ -8205,47 +8875,51 @@
         <v>0</v>
       </c>
       <c r="W83" t="s">
-        <v>609</v>
+        <v>689</v>
       </c>
       <c r="X83" t="s">
-        <v>610</v>
+        <v>690</v>
       </c>
       <c r="Y83" t="s">
-        <v>611</v>
+        <v>691</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>37816</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>136749</v>
+      </c>
+      <c r="C84" t="s">
+        <v>692</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F84" t="s">
-        <v>612</v>
+        <v>693</v>
       </c>
       <c r="G84" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I84" t="s">
-        <v>613</v>
+        <v>694</v>
       </c>
       <c r="J84" t="s">
-        <v>614</v>
+        <v>695</v>
       </c>
       <c r="K84" t="s">
-        <v>615</v>
+        <v>696</v>
       </c>
       <c r="L84" t="s">
-        <v>616</v>
+        <v>697</v>
       </c>
       <c r="M84" t="n">
         <v>4</v>
@@ -8274,50 +8948,54 @@
       <c r="W84" t="s"/>
       <c r="X84" t="s"/>
       <c r="Y84" t="s">
-        <v>617</v>
+        <v>698</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>37816</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>136750</v>
+      </c>
+      <c r="C85" t="s">
+        <v>699</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F85" t="s">
-        <v>618</v>
+        <v>700</v>
       </c>
       <c r="G85" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I85" t="s">
-        <v>619</v>
+        <v>701</v>
       </c>
       <c r="J85" t="s">
-        <v>620</v>
+        <v>702</v>
       </c>
       <c r="K85" t="s">
-        <v>621</v>
+        <v>703</v>
       </c>
       <c r="L85" t="s">
-        <v>622</v>
+        <v>704</v>
       </c>
       <c r="M85" t="n">
         <v>5</v>
       </c>
       <c r="N85" t="s">
-        <v>568</v>
+        <v>641</v>
       </c>
       <c r="O85" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P85" t="n">
         <v>5</v>
@@ -8341,50 +9019,54 @@
       <c r="W85" t="s"/>
       <c r="X85" t="s"/>
       <c r="Y85" t="s">
-        <v>623</v>
+        <v>705</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>37816</v>
       </c>
-      <c r="B86" t="s"/>
-      <c r="C86" t="s"/>
+      <c r="B86" t="n">
+        <v>136751</v>
+      </c>
+      <c r="C86" t="s">
+        <v>706</v>
+      </c>
       <c r="D86" t="n">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F86" t="s">
-        <v>624</v>
+        <v>707</v>
       </c>
       <c r="G86" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I86" t="s">
-        <v>625</v>
+        <v>708</v>
       </c>
       <c r="J86" t="s">
-        <v>626</v>
+        <v>709</v>
       </c>
       <c r="K86" t="s">
-        <v>627</v>
+        <v>710</v>
       </c>
       <c r="L86" t="s">
-        <v>628</v>
+        <v>711</v>
       </c>
       <c r="M86" t="n">
         <v>5</v>
       </c>
       <c r="N86" t="s">
-        <v>568</v>
+        <v>641</v>
       </c>
       <c r="O86" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="P86" t="s"/>
       <c r="Q86" t="s"/>
@@ -8398,41 +9080,45 @@
       <c r="W86" t="s"/>
       <c r="X86" t="s"/>
       <c r="Y86" t="s">
-        <v>628</v>
+        <v>711</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>37816</v>
       </c>
-      <c r="B87" t="s"/>
-      <c r="C87" t="s"/>
+      <c r="B87" t="n">
+        <v>136752</v>
+      </c>
+      <c r="C87" t="s">
+        <v>712</v>
+      </c>
       <c r="D87" t="n">
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F87" t="s">
-        <v>629</v>
+        <v>713</v>
       </c>
       <c r="G87" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I87" t="s">
-        <v>630</v>
+        <v>714</v>
       </c>
       <c r="J87" t="s">
-        <v>631</v>
+        <v>715</v>
       </c>
       <c r="K87" t="s">
-        <v>632</v>
+        <v>716</v>
       </c>
       <c r="L87" t="s">
-        <v>633</v>
+        <v>717</v>
       </c>
       <c r="M87" t="n">
         <v>5</v>
@@ -8461,50 +9147,54 @@
       <c r="W87" t="s"/>
       <c r="X87" t="s"/>
       <c r="Y87" t="s">
-        <v>633</v>
+        <v>717</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>37816</v>
       </c>
-      <c r="B88" t="s"/>
-      <c r="C88" t="s"/>
+      <c r="B88" t="n">
+        <v>136753</v>
+      </c>
+      <c r="C88" t="s">
+        <v>718</v>
+      </c>
       <c r="D88" t="n">
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F88" t="s">
-        <v>634</v>
+        <v>719</v>
       </c>
       <c r="G88" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I88" t="s">
-        <v>635</v>
+        <v>720</v>
       </c>
       <c r="J88" t="s">
-        <v>636</v>
+        <v>721</v>
       </c>
       <c r="K88" t="s">
-        <v>637</v>
+        <v>722</v>
       </c>
       <c r="L88" t="s">
-        <v>638</v>
+        <v>723</v>
       </c>
       <c r="M88" t="n">
         <v>4</v>
       </c>
       <c r="N88" t="s">
-        <v>639</v>
+        <v>724</v>
       </c>
       <c r="O88" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="P88" t="n">
         <v>5</v>
@@ -8528,50 +9218,54 @@
       <c r="W88" t="s"/>
       <c r="X88" t="s"/>
       <c r="Y88" t="s">
-        <v>638</v>
+        <v>723</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>37816</v>
       </c>
-      <c r="B89" t="s"/>
-      <c r="C89" t="s"/>
+      <c r="B89" t="n">
+        <v>136754</v>
+      </c>
+      <c r="C89" t="s">
+        <v>725</v>
+      </c>
       <c r="D89" t="n">
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F89" t="s">
-        <v>640</v>
+        <v>726</v>
       </c>
       <c r="G89" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I89" t="s">
-        <v>641</v>
+        <v>727</v>
       </c>
       <c r="J89" t="s">
-        <v>642</v>
+        <v>728</v>
       </c>
       <c r="K89" t="s">
-        <v>643</v>
+        <v>729</v>
       </c>
       <c r="L89" t="s">
-        <v>644</v>
+        <v>730</v>
       </c>
       <c r="M89" t="n">
         <v>4</v>
       </c>
       <c r="N89" t="s">
-        <v>645</v>
+        <v>731</v>
       </c>
       <c r="O89" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P89" t="n">
         <v>5</v>
@@ -8595,50 +9289,54 @@
       <c r="W89" t="s"/>
       <c r="X89" t="s"/>
       <c r="Y89" t="s">
-        <v>646</v>
+        <v>732</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>37816</v>
       </c>
-      <c r="B90" t="s"/>
-      <c r="C90" t="s"/>
+      <c r="B90" t="n">
+        <v>111012</v>
+      </c>
+      <c r="C90" t="s">
+        <v>733</v>
+      </c>
       <c r="D90" t="n">
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F90" t="s">
-        <v>647</v>
+        <v>734</v>
       </c>
       <c r="G90" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I90" t="s">
-        <v>648</v>
+        <v>735</v>
       </c>
       <c r="J90" t="s">
-        <v>649</v>
+        <v>736</v>
       </c>
       <c r="K90" t="s">
-        <v>650</v>
+        <v>737</v>
       </c>
       <c r="L90" t="s">
-        <v>651</v>
+        <v>738</v>
       </c>
       <c r="M90" t="n">
         <v>3</v>
       </c>
       <c r="N90" t="s">
-        <v>645</v>
+        <v>731</v>
       </c>
       <c r="O90" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="P90" t="n">
         <v>4</v>
@@ -8662,41 +9360,45 @@
       <c r="W90" t="s"/>
       <c r="X90" t="s"/>
       <c r="Y90" t="s">
-        <v>652</v>
+        <v>739</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
         <v>37816</v>
       </c>
-      <c r="B91" t="s"/>
-      <c r="C91" t="s"/>
+      <c r="B91" t="n">
+        <v>136755</v>
+      </c>
+      <c r="C91" t="s">
+        <v>740</v>
+      </c>
       <c r="D91" t="n">
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F91" t="s">
-        <v>653</v>
+        <v>741</v>
       </c>
       <c r="G91" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I91" t="s">
-        <v>654</v>
+        <v>742</v>
       </c>
       <c r="J91" t="s">
-        <v>655</v>
+        <v>743</v>
       </c>
       <c r="K91" t="s">
-        <v>656</v>
+        <v>744</v>
       </c>
       <c r="L91" t="s">
-        <v>657</v>
+        <v>745</v>
       </c>
       <c r="M91" t="n">
         <v>4</v>
@@ -8725,50 +9427,54 @@
       <c r="W91" t="s"/>
       <c r="X91" t="s"/>
       <c r="Y91" t="s">
-        <v>658</v>
+        <v>746</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
         <v>37816</v>
       </c>
-      <c r="B92" t="s"/>
-      <c r="C92" t="s"/>
+      <c r="B92" t="n">
+        <v>136756</v>
+      </c>
+      <c r="C92" t="s">
+        <v>747</v>
+      </c>
       <c r="D92" t="n">
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F92" t="s">
-        <v>659</v>
+        <v>748</v>
       </c>
       <c r="G92" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H92" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I92" t="s">
-        <v>660</v>
+        <v>749</v>
       </c>
       <c r="J92" t="s">
-        <v>661</v>
+        <v>750</v>
       </c>
       <c r="K92" t="s">
-        <v>662</v>
+        <v>751</v>
       </c>
       <c r="L92" t="s">
-        <v>663</v>
+        <v>752</v>
       </c>
       <c r="M92" t="n">
         <v>5</v>
       </c>
       <c r="N92" t="s">
-        <v>645</v>
+        <v>731</v>
       </c>
       <c r="O92" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="P92" t="n">
         <v>5</v>
@@ -8792,50 +9498,54 @@
       <c r="W92" t="s"/>
       <c r="X92" t="s"/>
       <c r="Y92" t="s">
-        <v>663</v>
+        <v>752</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
         <v>37816</v>
       </c>
-      <c r="B93" t="s"/>
-      <c r="C93" t="s"/>
+      <c r="B93" t="n">
+        <v>136757</v>
+      </c>
+      <c r="C93" t="s">
+        <v>753</v>
+      </c>
       <c r="D93" t="n">
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F93" t="s">
-        <v>664</v>
+        <v>754</v>
       </c>
       <c r="G93" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I93" t="s">
-        <v>665</v>
+        <v>755</v>
       </c>
       <c r="J93" t="s">
-        <v>666</v>
+        <v>756</v>
       </c>
       <c r="K93" t="s">
-        <v>667</v>
+        <v>757</v>
       </c>
       <c r="L93" t="s">
-        <v>668</v>
+        <v>758</v>
       </c>
       <c r="M93" t="n">
         <v>5</v>
       </c>
       <c r="N93" t="s">
-        <v>639</v>
+        <v>724</v>
       </c>
       <c r="O93" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P93" t="n">
         <v>5</v>
@@ -8859,41 +9569,45 @@
       <c r="W93" t="s"/>
       <c r="X93" t="s"/>
       <c r="Y93" t="s">
-        <v>669</v>
+        <v>759</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
         <v>37816</v>
       </c>
-      <c r="B94" t="s"/>
-      <c r="C94" t="s"/>
+      <c r="B94" t="n">
+        <v>114252</v>
+      </c>
+      <c r="C94" t="s">
+        <v>760</v>
+      </c>
       <c r="D94" t="n">
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F94" t="s">
-        <v>670</v>
+        <v>761</v>
       </c>
       <c r="G94" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H94" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I94" t="s">
-        <v>671</v>
+        <v>762</v>
       </c>
       <c r="J94" t="s">
-        <v>672</v>
+        <v>763</v>
       </c>
       <c r="K94" t="s">
-        <v>673</v>
+        <v>764</v>
       </c>
       <c r="L94" t="s">
-        <v>674</v>
+        <v>765</v>
       </c>
       <c r="M94" t="n">
         <v>5</v>
@@ -8922,50 +9636,54 @@
       <c r="W94" t="s"/>
       <c r="X94" t="s"/>
       <c r="Y94" t="s">
-        <v>674</v>
+        <v>765</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
         <v>37816</v>
       </c>
-      <c r="B95" t="s"/>
-      <c r="C95" t="s"/>
+      <c r="B95" t="n">
+        <v>136758</v>
+      </c>
+      <c r="C95" t="s">
+        <v>766</v>
+      </c>
       <c r="D95" t="n">
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F95" t="s">
-        <v>675</v>
+        <v>767</v>
       </c>
       <c r="G95" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H95" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I95" t="s">
-        <v>676</v>
+        <v>768</v>
       </c>
       <c r="J95" t="s">
-        <v>677</v>
+        <v>769</v>
       </c>
       <c r="K95" t="s">
-        <v>678</v>
+        <v>770</v>
       </c>
       <c r="L95" t="s">
-        <v>679</v>
+        <v>771</v>
       </c>
       <c r="M95" t="n">
         <v>4</v>
       </c>
       <c r="N95" t="s">
-        <v>680</v>
+        <v>772</v>
       </c>
       <c r="O95" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="P95" t="n">
         <v>4</v>
@@ -8989,41 +9707,45 @@
       <c r="W95" t="s"/>
       <c r="X95" t="s"/>
       <c r="Y95" t="s">
-        <v>681</v>
+        <v>773</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
         <v>37816</v>
       </c>
-      <c r="B96" t="s"/>
-      <c r="C96" t="s"/>
+      <c r="B96" t="n">
+        <v>136759</v>
+      </c>
+      <c r="C96" t="s">
+        <v>774</v>
+      </c>
       <c r="D96" t="n">
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F96" t="s">
-        <v>682</v>
+        <v>775</v>
       </c>
       <c r="G96" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H96" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I96" t="s">
-        <v>683</v>
+        <v>776</v>
       </c>
       <c r="J96" t="s">
-        <v>684</v>
+        <v>777</v>
       </c>
       <c r="K96" t="s">
-        <v>685</v>
+        <v>778</v>
       </c>
       <c r="L96" t="s">
-        <v>686</v>
+        <v>779</v>
       </c>
       <c r="M96" t="n">
         <v>4</v>
@@ -9052,50 +9774,54 @@
       <c r="W96" t="s"/>
       <c r="X96" t="s"/>
       <c r="Y96" t="s">
-        <v>686</v>
+        <v>779</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
         <v>37816</v>
       </c>
-      <c r="B97" t="s"/>
-      <c r="C97" t="s"/>
+      <c r="B97" t="n">
+        <v>136760</v>
+      </c>
+      <c r="C97" t="s">
+        <v>780</v>
+      </c>
       <c r="D97" t="n">
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F97" t="s">
-        <v>687</v>
+        <v>781</v>
       </c>
       <c r="G97" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H97" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I97" t="s">
-        <v>688</v>
+        <v>782</v>
       </c>
       <c r="J97" t="s">
-        <v>689</v>
+        <v>783</v>
       </c>
       <c r="K97" t="s">
-        <v>690</v>
+        <v>784</v>
       </c>
       <c r="L97" t="s">
-        <v>691</v>
+        <v>785</v>
       </c>
       <c r="M97" t="n">
         <v>3</v>
       </c>
       <c r="N97" t="s">
-        <v>692</v>
+        <v>786</v>
       </c>
       <c r="O97" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P97" t="n">
         <v>3</v>
@@ -9119,50 +9845,54 @@
       <c r="W97" t="s"/>
       <c r="X97" t="s"/>
       <c r="Y97" t="s">
-        <v>693</v>
+        <v>787</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
         <v>37816</v>
       </c>
-      <c r="B98" t="s"/>
-      <c r="C98" t="s"/>
+      <c r="B98" t="n">
+        <v>136761</v>
+      </c>
+      <c r="C98" t="s">
+        <v>788</v>
+      </c>
       <c r="D98" t="n">
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F98" t="s">
-        <v>694</v>
+        <v>789</v>
       </c>
       <c r="G98" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H98" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I98" t="s">
-        <v>695</v>
+        <v>790</v>
       </c>
       <c r="J98" t="s">
-        <v>696</v>
+        <v>791</v>
       </c>
       <c r="K98" t="s">
-        <v>697</v>
+        <v>792</v>
       </c>
       <c r="L98" t="s">
-        <v>698</v>
+        <v>793</v>
       </c>
       <c r="M98" t="n">
         <v>4</v>
       </c>
       <c r="N98" t="s">
-        <v>692</v>
+        <v>786</v>
       </c>
       <c r="O98" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P98" t="n">
         <v>5</v>
@@ -9186,50 +9916,54 @@
       <c r="W98" t="s"/>
       <c r="X98" t="s"/>
       <c r="Y98" t="s">
-        <v>698</v>
+        <v>793</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
         <v>37816</v>
       </c>
-      <c r="B99" t="s"/>
-      <c r="C99" t="s"/>
+      <c r="B99" t="n">
+        <v>14981</v>
+      </c>
+      <c r="C99" t="s">
+        <v>794</v>
+      </c>
       <c r="D99" t="n">
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F99" t="s">
-        <v>699</v>
+        <v>795</v>
       </c>
       <c r="G99" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H99" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I99" t="s">
-        <v>700</v>
+        <v>796</v>
       </c>
       <c r="J99" t="s">
-        <v>701</v>
+        <v>797</v>
       </c>
       <c r="K99" t="s">
-        <v>702</v>
+        <v>798</v>
       </c>
       <c r="L99" t="s">
-        <v>703</v>
+        <v>799</v>
       </c>
       <c r="M99" t="n">
         <v>5</v>
       </c>
       <c r="N99" t="s">
-        <v>704</v>
+        <v>800</v>
       </c>
       <c r="O99" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P99" t="n">
         <v>5</v>
@@ -9253,50 +9987,54 @@
       <c r="W99" t="s"/>
       <c r="X99" t="s"/>
       <c r="Y99" t="s">
-        <v>705</v>
+        <v>801</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
         <v>37816</v>
       </c>
-      <c r="B100" t="s"/>
-      <c r="C100" t="s"/>
+      <c r="B100" t="n">
+        <v>136762</v>
+      </c>
+      <c r="C100" t="s">
+        <v>802</v>
+      </c>
       <c r="D100" t="n">
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F100" t="s">
-        <v>706</v>
+        <v>803</v>
       </c>
       <c r="G100" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H100" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I100" t="s">
-        <v>707</v>
+        <v>804</v>
       </c>
       <c r="J100" t="s">
-        <v>708</v>
+        <v>805</v>
       </c>
       <c r="K100" t="s">
-        <v>709</v>
+        <v>806</v>
       </c>
       <c r="L100" t="s">
-        <v>710</v>
+        <v>807</v>
       </c>
       <c r="M100" t="n">
         <v>5</v>
       </c>
       <c r="N100" t="s">
-        <v>711</v>
+        <v>808</v>
       </c>
       <c r="O100" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="P100" t="n">
         <v>4</v>
@@ -9320,50 +10058,54 @@
       <c r="W100" t="s"/>
       <c r="X100" t="s"/>
       <c r="Y100" t="s">
-        <v>710</v>
+        <v>807</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
         <v>37816</v>
       </c>
-      <c r="B101" t="s"/>
-      <c r="C101" t="s"/>
+      <c r="B101" t="n">
+        <v>80714</v>
+      </c>
+      <c r="C101" t="s">
+        <v>494</v>
+      </c>
       <c r="D101" t="n">
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F101" t="s">
-        <v>712</v>
+        <v>809</v>
       </c>
       <c r="G101" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H101" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I101" t="s">
-        <v>713</v>
+        <v>810</v>
       </c>
       <c r="J101" t="s">
-        <v>714</v>
+        <v>811</v>
       </c>
       <c r="K101" t="s">
-        <v>715</v>
+        <v>812</v>
       </c>
       <c r="L101" t="s">
-        <v>716</v>
+        <v>813</v>
       </c>
       <c r="M101" t="n">
         <v>5</v>
       </c>
       <c r="N101" t="s">
-        <v>717</v>
+        <v>814</v>
       </c>
       <c r="O101" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P101" t="n">
         <v>5</v>
@@ -9387,50 +10129,54 @@
       <c r="W101" t="s"/>
       <c r="X101" t="s"/>
       <c r="Y101" t="s">
-        <v>716</v>
+        <v>813</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
         <v>37816</v>
       </c>
-      <c r="B102" t="s"/>
-      <c r="C102" t="s"/>
+      <c r="B102" t="n">
+        <v>15760</v>
+      </c>
+      <c r="C102" t="s">
+        <v>815</v>
+      </c>
       <c r="D102" t="n">
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F102" t="s">
-        <v>718</v>
+        <v>816</v>
       </c>
       <c r="G102" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H102" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I102" t="s">
-        <v>719</v>
+        <v>817</v>
       </c>
       <c r="J102" t="s">
-        <v>720</v>
+        <v>818</v>
       </c>
       <c r="K102" t="s">
-        <v>721</v>
+        <v>819</v>
       </c>
       <c r="L102" t="s">
-        <v>722</v>
+        <v>820</v>
       </c>
       <c r="M102" t="n">
         <v>5</v>
       </c>
       <c r="N102" t="s">
-        <v>723</v>
+        <v>821</v>
       </c>
       <c r="O102" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P102" t="n">
         <v>4</v>
@@ -9454,50 +10200,54 @@
       <c r="W102" t="s"/>
       <c r="X102" t="s"/>
       <c r="Y102" t="s">
-        <v>722</v>
+        <v>820</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
         <v>37816</v>
       </c>
-      <c r="B103" t="s"/>
-      <c r="C103" t="s"/>
+      <c r="B103" t="n">
+        <v>136763</v>
+      </c>
+      <c r="C103" t="s">
+        <v>822</v>
+      </c>
       <c r="D103" t="n">
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F103" t="s">
-        <v>724</v>
+        <v>823</v>
       </c>
       <c r="G103" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H103" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I103" t="s">
-        <v>725</v>
+        <v>824</v>
       </c>
       <c r="J103" t="s">
-        <v>726</v>
+        <v>825</v>
       </c>
       <c r="K103" t="s">
-        <v>727</v>
+        <v>826</v>
       </c>
       <c r="L103" t="s">
-        <v>728</v>
+        <v>827</v>
       </c>
       <c r="M103" t="n">
         <v>5</v>
       </c>
       <c r="N103" t="s">
-        <v>723</v>
+        <v>821</v>
       </c>
       <c r="O103" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P103" t="n">
         <v>5</v>
@@ -9519,50 +10269,54 @@
       <c r="W103" t="s"/>
       <c r="X103" t="s"/>
       <c r="Y103" t="s">
-        <v>728</v>
+        <v>827</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
         <v>37816</v>
       </c>
-      <c r="B104" t="s"/>
-      <c r="C104" t="s"/>
+      <c r="B104" t="n">
+        <v>136764</v>
+      </c>
+      <c r="C104" t="s">
+        <v>828</v>
+      </c>
       <c r="D104" t="n">
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F104" t="s">
-        <v>729</v>
+        <v>829</v>
       </c>
       <c r="G104" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H104" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I104" t="s">
-        <v>730</v>
+        <v>830</v>
       </c>
       <c r="J104" t="s">
-        <v>731</v>
+        <v>831</v>
       </c>
       <c r="K104" t="s">
-        <v>732</v>
+        <v>832</v>
       </c>
       <c r="L104" t="s">
-        <v>733</v>
+        <v>833</v>
       </c>
       <c r="M104" t="n">
         <v>5</v>
       </c>
       <c r="N104" t="s">
-        <v>734</v>
+        <v>834</v>
       </c>
       <c r="O104" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="P104" t="n">
         <v>5</v>
@@ -9582,50 +10336,54 @@
       <c r="W104" t="s"/>
       <c r="X104" t="s"/>
       <c r="Y104" t="s">
-        <v>733</v>
+        <v>833</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
         <v>37816</v>
       </c>
-      <c r="B105" t="s"/>
-      <c r="C105" t="s"/>
+      <c r="B105" t="n">
+        <v>136765</v>
+      </c>
+      <c r="C105" t="s">
+        <v>835</v>
+      </c>
       <c r="D105" t="n">
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F105" t="s">
-        <v>735</v>
+        <v>836</v>
       </c>
       <c r="G105" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H105" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I105" t="s">
-        <v>736</v>
+        <v>837</v>
       </c>
       <c r="J105" t="s">
-        <v>737</v>
+        <v>838</v>
       </c>
       <c r="K105" t="s">
-        <v>738</v>
+        <v>839</v>
       </c>
       <c r="L105" t="s">
-        <v>739</v>
+        <v>840</v>
       </c>
       <c r="M105" t="n">
         <v>4</v>
       </c>
       <c r="N105" t="s">
-        <v>740</v>
+        <v>841</v>
       </c>
       <c r="O105" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P105" t="n">
         <v>5</v>
@@ -9649,50 +10407,54 @@
       <c r="W105" t="s"/>
       <c r="X105" t="s"/>
       <c r="Y105" t="s">
-        <v>741</v>
+        <v>842</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
         <v>37816</v>
       </c>
-      <c r="B106" t="s"/>
-      <c r="C106" t="s"/>
+      <c r="B106" t="n">
+        <v>136766</v>
+      </c>
+      <c r="C106" t="s">
+        <v>843</v>
+      </c>
       <c r="D106" t="n">
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F106" t="s">
-        <v>742</v>
+        <v>844</v>
       </c>
       <c r="G106" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H106" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I106" t="s">
-        <v>743</v>
+        <v>845</v>
       </c>
       <c r="J106" t="s">
-        <v>744</v>
+        <v>846</v>
       </c>
       <c r="K106" t="s">
-        <v>745</v>
+        <v>847</v>
       </c>
       <c r="L106" t="s">
-        <v>746</v>
+        <v>848</v>
       </c>
       <c r="M106" t="n">
         <v>3</v>
       </c>
       <c r="N106" t="s">
-        <v>747</v>
+        <v>849</v>
       </c>
       <c r="O106" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P106" t="n">
         <v>3</v>
@@ -9716,50 +10478,54 @@
       <c r="W106" t="s"/>
       <c r="X106" t="s"/>
       <c r="Y106" t="s">
-        <v>746</v>
+        <v>848</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
         <v>37816</v>
       </c>
-      <c r="B107" t="s"/>
-      <c r="C107" t="s"/>
+      <c r="B107" t="n">
+        <v>136767</v>
+      </c>
+      <c r="C107" t="s">
+        <v>850</v>
+      </c>
       <c r="D107" t="n">
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F107" t="s">
-        <v>748</v>
+        <v>851</v>
       </c>
       <c r="G107" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H107" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I107" t="s">
-        <v>749</v>
+        <v>852</v>
       </c>
       <c r="J107" t="s">
-        <v>750</v>
+        <v>853</v>
       </c>
       <c r="K107" t="s">
-        <v>751</v>
+        <v>854</v>
       </c>
       <c r="L107" t="s">
-        <v>752</v>
+        <v>855</v>
       </c>
       <c r="M107" t="n">
         <v>4</v>
       </c>
       <c r="N107" t="s">
-        <v>753</v>
+        <v>856</v>
       </c>
       <c r="O107" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P107" t="n">
         <v>5</v>
@@ -9783,50 +10549,54 @@
       <c r="W107" t="s"/>
       <c r="X107" t="s"/>
       <c r="Y107" t="s">
-        <v>752</v>
+        <v>855</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
         <v>37816</v>
       </c>
-      <c r="B108" t="s"/>
-      <c r="C108" t="s"/>
+      <c r="B108" t="n">
+        <v>136768</v>
+      </c>
+      <c r="C108" t="s">
+        <v>857</v>
+      </c>
       <c r="D108" t="n">
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F108" t="s">
-        <v>754</v>
+        <v>858</v>
       </c>
       <c r="G108" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H108" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I108" t="s">
-        <v>755</v>
+        <v>859</v>
       </c>
       <c r="J108" t="s">
-        <v>756</v>
+        <v>860</v>
       </c>
       <c r="K108" t="s">
-        <v>757</v>
+        <v>861</v>
       </c>
       <c r="L108" t="s">
-        <v>758</v>
+        <v>862</v>
       </c>
       <c r="M108" t="n">
         <v>3</v>
       </c>
       <c r="N108" t="s">
-        <v>759</v>
+        <v>863</v>
       </c>
       <c r="O108" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P108" t="n">
         <v>3</v>
@@ -9850,50 +10620,54 @@
       <c r="W108" t="s"/>
       <c r="X108" t="s"/>
       <c r="Y108" t="s">
-        <v>758</v>
+        <v>862</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
         <v>37816</v>
       </c>
-      <c r="B109" t="s"/>
-      <c r="C109" t="s"/>
+      <c r="B109" t="n">
+        <v>136769</v>
+      </c>
+      <c r="C109" t="s">
+        <v>864</v>
+      </c>
       <c r="D109" t="n">
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F109" t="s">
-        <v>760</v>
+        <v>865</v>
       </c>
       <c r="G109" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H109" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I109" t="s">
-        <v>761</v>
+        <v>866</v>
       </c>
       <c r="J109" t="s">
-        <v>762</v>
+        <v>867</v>
       </c>
       <c r="K109" t="s">
-        <v>763</v>
+        <v>868</v>
       </c>
       <c r="L109" t="s">
-        <v>764</v>
+        <v>869</v>
       </c>
       <c r="M109" t="n">
         <v>5</v>
       </c>
       <c r="N109" t="s">
-        <v>765</v>
+        <v>870</v>
       </c>
       <c r="O109" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P109" t="n">
         <v>5</v>
@@ -9917,50 +10691,54 @@
       <c r="W109" t="s"/>
       <c r="X109" t="s"/>
       <c r="Y109" t="s">
-        <v>766</v>
+        <v>871</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
         <v>37816</v>
       </c>
-      <c r="B110" t="s"/>
-      <c r="C110" t="s"/>
+      <c r="B110" t="n">
+        <v>136770</v>
+      </c>
+      <c r="C110" t="s">
+        <v>872</v>
+      </c>
       <c r="D110" t="n">
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F110" t="s">
-        <v>767</v>
+        <v>873</v>
       </c>
       <c r="G110" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H110" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I110" t="s">
-        <v>768</v>
+        <v>874</v>
       </c>
       <c r="J110" t="s">
-        <v>769</v>
+        <v>875</v>
       </c>
       <c r="K110" t="s">
-        <v>770</v>
+        <v>876</v>
       </c>
       <c r="L110" t="s">
-        <v>771</v>
+        <v>877</v>
       </c>
       <c r="M110" t="n">
         <v>4</v>
       </c>
       <c r="N110" t="s">
-        <v>772</v>
+        <v>878</v>
       </c>
       <c r="O110" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="P110" t="n">
         <v>3</v>
@@ -9984,41 +10762,45 @@
       <c r="W110" t="s"/>
       <c r="X110" t="s"/>
       <c r="Y110" t="s">
-        <v>773</v>
+        <v>879</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
         <v>37816</v>
       </c>
-      <c r="B111" t="s"/>
-      <c r="C111" t="s"/>
+      <c r="B111" t="n">
+        <v>136771</v>
+      </c>
+      <c r="C111" t="s">
+        <v>880</v>
+      </c>
       <c r="D111" t="n">
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F111" t="s">
-        <v>774</v>
+        <v>881</v>
       </c>
       <c r="G111" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H111" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I111" t="s">
-        <v>775</v>
+        <v>882</v>
       </c>
       <c r="J111" t="s">
-        <v>776</v>
+        <v>883</v>
       </c>
       <c r="K111" t="s">
-        <v>777</v>
+        <v>884</v>
       </c>
       <c r="L111" t="s">
-        <v>778</v>
+        <v>885</v>
       </c>
       <c r="M111" t="n">
         <v>4</v>
@@ -10037,41 +10819,45 @@
       <c r="W111" t="s"/>
       <c r="X111" t="s"/>
       <c r="Y111" t="s">
-        <v>778</v>
+        <v>885</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
         <v>37816</v>
       </c>
-      <c r="B112" t="s"/>
-      <c r="C112" t="s"/>
+      <c r="B112" t="n">
+        <v>136772</v>
+      </c>
+      <c r="C112" t="s">
+        <v>886</v>
+      </c>
       <c r="D112" t="n">
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F112" t="s">
-        <v>779</v>
+        <v>887</v>
       </c>
       <c r="G112" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H112" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I112" t="s">
-        <v>780</v>
+        <v>888</v>
       </c>
       <c r="J112" t="s">
-        <v>781</v>
+        <v>889</v>
       </c>
       <c r="K112" t="s">
-        <v>782</v>
+        <v>890</v>
       </c>
       <c r="L112" t="s">
-        <v>783</v>
+        <v>891</v>
       </c>
       <c r="M112" t="n">
         <v>4</v>
@@ -10090,41 +10876,45 @@
       <c r="W112" t="s"/>
       <c r="X112" t="s"/>
       <c r="Y112" t="s">
-        <v>783</v>
+        <v>891</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
         <v>37816</v>
       </c>
-      <c r="B113" t="s"/>
-      <c r="C113" t="s"/>
+      <c r="B113" t="n">
+        <v>136773</v>
+      </c>
+      <c r="C113" t="s">
+        <v>892</v>
+      </c>
       <c r="D113" t="n">
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F113" t="s">
-        <v>784</v>
+        <v>893</v>
       </c>
       <c r="G113" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H113" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I113" t="s">
-        <v>785</v>
+        <v>894</v>
       </c>
       <c r="J113" t="s">
-        <v>786</v>
+        <v>895</v>
       </c>
       <c r="K113" t="s">
-        <v>787</v>
+        <v>896</v>
       </c>
       <c r="L113" t="s">
-        <v>788</v>
+        <v>897</v>
       </c>
       <c r="M113" t="n">
         <v>4</v>
@@ -10143,50 +10933,54 @@
       <c r="W113" t="s"/>
       <c r="X113" t="s"/>
       <c r="Y113" t="s">
-        <v>789</v>
+        <v>898</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
         <v>37816</v>
       </c>
-      <c r="B114" t="s"/>
-      <c r="C114" t="s"/>
+      <c r="B114" t="n">
+        <v>136774</v>
+      </c>
+      <c r="C114" t="s">
+        <v>899</v>
+      </c>
       <c r="D114" t="n">
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F114" t="s">
-        <v>790</v>
+        <v>900</v>
       </c>
       <c r="G114" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H114" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I114" t="s">
-        <v>791</v>
+        <v>901</v>
       </c>
       <c r="J114" t="s">
-        <v>792</v>
+        <v>902</v>
       </c>
       <c r="K114" t="s">
-        <v>793</v>
+        <v>903</v>
       </c>
       <c r="L114" t="s">
-        <v>794</v>
+        <v>904</v>
       </c>
       <c r="M114" t="n">
         <v>4</v>
       </c>
       <c r="N114" t="s">
-        <v>795</v>
+        <v>905</v>
       </c>
       <c r="O114" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="P114" t="n">
         <v>5</v>
@@ -10210,50 +11004,54 @@
       <c r="W114" t="s"/>
       <c r="X114" t="s"/>
       <c r="Y114" t="s">
-        <v>796</v>
+        <v>906</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
         <v>37816</v>
       </c>
-      <c r="B115" t="s"/>
-      <c r="C115" t="s"/>
+      <c r="B115" t="n">
+        <v>136775</v>
+      </c>
+      <c r="C115" t="s">
+        <v>907</v>
+      </c>
       <c r="D115" t="n">
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F115" t="s">
-        <v>797</v>
+        <v>908</v>
       </c>
       <c r="G115" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H115" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I115" t="s">
-        <v>798</v>
+        <v>909</v>
       </c>
       <c r="J115" t="s">
-        <v>799</v>
+        <v>910</v>
       </c>
       <c r="K115" t="s">
-        <v>800</v>
+        <v>911</v>
       </c>
       <c r="L115" t="s">
-        <v>801</v>
+        <v>912</v>
       </c>
       <c r="M115" t="n">
         <v>4</v>
       </c>
       <c r="N115" t="s">
-        <v>802</v>
+        <v>913</v>
       </c>
       <c r="O115" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="P115" t="n">
         <v>4</v>
@@ -10277,50 +11075,54 @@
       <c r="W115" t="s"/>
       <c r="X115" t="s"/>
       <c r="Y115" t="s">
-        <v>801</v>
+        <v>912</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
         <v>37816</v>
       </c>
-      <c r="B116" t="s"/>
-      <c r="C116" t="s"/>
+      <c r="B116" t="n">
+        <v>136776</v>
+      </c>
+      <c r="C116" t="s">
+        <v>914</v>
+      </c>
       <c r="D116" t="n">
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F116" t="s">
-        <v>803</v>
+        <v>915</v>
       </c>
       <c r="G116" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H116" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I116" t="s">
-        <v>804</v>
+        <v>916</v>
       </c>
       <c r="J116" t="s">
-        <v>805</v>
+        <v>917</v>
       </c>
       <c r="K116" t="s">
-        <v>806</v>
+        <v>918</v>
       </c>
       <c r="L116" t="s">
-        <v>807</v>
+        <v>919</v>
       </c>
       <c r="M116" t="n">
         <v>5</v>
       </c>
       <c r="N116" t="s">
-        <v>808</v>
+        <v>920</v>
       </c>
       <c r="O116" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="P116" t="n">
         <v>5</v>
@@ -10344,41 +11146,45 @@
       <c r="W116" t="s"/>
       <c r="X116" t="s"/>
       <c r="Y116" t="s">
-        <v>807</v>
+        <v>919</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
         <v>37816</v>
       </c>
-      <c r="B117" t="s"/>
-      <c r="C117" t="s"/>
+      <c r="B117" t="n">
+        <v>136777</v>
+      </c>
+      <c r="C117" t="s">
+        <v>921</v>
+      </c>
       <c r="D117" t="n">
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F117" t="s">
-        <v>809</v>
+        <v>922</v>
       </c>
       <c r="G117" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H117" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I117" t="s">
-        <v>810</v>
+        <v>923</v>
       </c>
       <c r="J117" t="s">
-        <v>811</v>
+        <v>924</v>
       </c>
       <c r="K117" t="s">
-        <v>812</v>
+        <v>925</v>
       </c>
       <c r="L117" t="s">
-        <v>813</v>
+        <v>926</v>
       </c>
       <c r="M117" t="n">
         <v>5</v>
@@ -10397,41 +11203,45 @@
       <c r="W117" t="s"/>
       <c r="X117" t="s"/>
       <c r="Y117" t="s">
-        <v>814</v>
+        <v>927</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
         <v>37816</v>
       </c>
-      <c r="B118" t="s"/>
-      <c r="C118" t="s"/>
+      <c r="B118" t="n">
+        <v>7</v>
+      </c>
+      <c r="C118" t="s">
+        <v>928</v>
+      </c>
       <c r="D118" t="n">
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F118" t="s">
-        <v>815</v>
+        <v>929</v>
       </c>
       <c r="G118" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H118" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I118" t="s">
-        <v>816</v>
+        <v>930</v>
       </c>
       <c r="J118" t="s">
-        <v>817</v>
+        <v>931</v>
       </c>
       <c r="K118" t="s">
-        <v>818</v>
+        <v>932</v>
       </c>
       <c r="L118" t="s">
-        <v>819</v>
+        <v>933</v>
       </c>
       <c r="M118" t="n">
         <v>5</v>
@@ -10450,7 +11260,7 @@
       <c r="W118" t="s"/>
       <c r="X118" t="s"/>
       <c r="Y118" t="s">
-        <v>819</v>
+        <v>933</v>
       </c>
     </row>
   </sheetData>
